--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$CR$1:$CR$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AZ$1:$AZ$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$CO$1:$CO$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="787">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2936,10 +2972,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2980,10 +3016,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +3046,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3030,7 +3066,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3047,7 +3083,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3064,7 +3100,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3081,7 +3117,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3098,7 +3134,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3115,7 +3151,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3132,7 +3168,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3149,7 +3185,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3166,7 +3202,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3180,7 +3216,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3194,7 +3230,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3208,7 +3244,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3222,7 +3258,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3232,8 +3268,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3243,8 +3282,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3254,8 +3296,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3265,8 +3310,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3277,7 +3325,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3288,7 +3336,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3299,7 +3347,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3310,7 +3358,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3321,7 +3369,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3332,7 +3380,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3343,7 +3391,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3354,7 +3402,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3365,7 +3413,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3376,7 +3424,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3387,7 +3435,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3398,7 +3446,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3409,7 +3457,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3420,7 +3468,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3428,7 +3476,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3436,7 +3484,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3444,7 +3492,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3452,7 +3500,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3460,7 +3508,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3468,7 +3516,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3476,7 +3524,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3484,7 +3532,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3492,7 +3540,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3500,176 +3548,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3694,27 +3782,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3737,122 +3825,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3879,588 +3967,588 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -4498,1578 +4586,1578 @@
   <sheetData>
     <row r="1" spans="28:96">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AJ1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AZ1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="CN1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="CO1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="CR1" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="28:96">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AJ2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AZ2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="CN2" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="CO2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="CR2" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="28:96">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AJ3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="CN3" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="CO3" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="CR3" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="28:96">
       <c r="AJ4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="CN4" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="CO4" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="CR4" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="28:96">
       <c r="AJ5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="CN5" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="CO5" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="CR5" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="28:96">
       <c r="AJ6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="CN6" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="CO6" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="28:96">
       <c r="AJ7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="CN7" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="CO7" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="28:96">
       <c r="AJ8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="CN8" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="28:96">
       <c r="AJ9" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="CN9" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="28:96">
       <c r="AJ10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="CN10" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="28:96">
       <c r="AJ11" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="CN11" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="28:96">
       <c r="AJ12" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="CN12" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="28:96">
       <c r="AJ13" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="CN13" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="28:96">
       <c r="AJ14" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="CN14" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="28:96">
       <c r="AJ15" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="CN15" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="28:96">
       <c r="AJ16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="CN16" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="36:92">
       <c r="AJ17" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="CN17" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="36:92">
       <c r="AJ18" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="CN18" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="36:92">
       <c r="AJ19" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="CN19" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="36:92">
       <c r="AJ20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="CN20" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="36:92">
       <c r="AJ21" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="CN21" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="36:92">
       <c r="AJ22" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="CN22" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="36:92">
       <c r="AJ23" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="CN23" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="36:92">
       <c r="AJ24" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="CN24" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="25" spans="36:92">
       <c r="AJ25" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="CN25" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="36:92">
       <c r="AJ26" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="CN26" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="36:92">
       <c r="AJ27" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="CN27" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" spans="36:92">
       <c r="AJ28" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="CN28" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="36:92">
       <c r="AJ29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="CN29" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="36:92">
       <c r="AJ30" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="CN30" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="36:92">
       <c r="AJ31" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="36:92">
       <c r="AJ32" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="36:36">
       <c r="AJ33" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="36:36">
       <c r="AJ34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="36:36">
       <c r="AJ35" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="AJ36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="36:36">
       <c r="AJ37" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="36:36">
       <c r="AJ38" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="36:36">
       <c r="AJ39" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="36:36">
       <c r="AJ41" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="36:36">
       <c r="AJ42" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="36:36">
       <c r="AJ43" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="36:36">
       <c r="AJ44" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="36:36">
       <c r="AJ45" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="36:36">
       <c r="AJ46" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="36:36">
       <c r="AJ47" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -884,8 +884,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1026,8 +1025,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1900,15 +1898,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1920,8 +1916,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1945,8 +1940,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -1976,22 +1970,19 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements Units: 
-                    </t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
   </si>
   <si>
     <t>density</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Density of sample Units: 
-                    </t>
+    <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
     <t>aerobic</t>
@@ -2015,15 +2006,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2059,29 +2048,25 @@
     <t>alkalinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate Units: 
-                    </t>
+    <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
     <t>water current</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of magnitude and direction of flow within a fluid Units: 
-                    </t>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Pressure to which the sample is subject, in atmospheres Units: 
-                    </t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2093,176 +2078,151 @@
     <t>ammonium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of ammonium Units: 
-                    </t>
+    <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bromide Units: 
-                    </t>
+    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of calcium Units: 
-                    </t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
   </si>
   <si>
     <t>chloride</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chloride Units: 
-                    </t>
+    <t>(Optional) Concentration of chloride (Units: mg/L)</t>
   </si>
   <si>
     <t>chlorophyll</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chlorophyll Units: 
-                    </t>
+    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of diether lipids; can include multiple types of diether lipids Units: 
-                    </t>
+    <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
     <t>dissolved carbon dioxide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved carbon dioxide Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved hydrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved hydrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved inorganic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved inorganic carbon concentration Units: 
-                    </t>
+    <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 Units: 
-                    </t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved oxygen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved oxygen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
     <t>nitrate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrate Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrite</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrite Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrogen (total) Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrogen (total) (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic matter</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic matter Units: 
-                    </t>
+    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
     <t>organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic nitrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phosphate Units: 
-                    </t>
+    <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phospholipid fatty acids; can include multiple values Units: 
-                    </t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of potassium Units: 
-                    </t>
+    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>silicate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of silicate Units: 
-                    </t>
+    <t>(Optional) Concentration of silicate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sodium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Sodium concentration Units: 
-                    </t>
+    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfate Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfide Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
   </si>
   <si>
     <t>subspecific genetic lineage</t>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="788">
   <si>
     <t>alias</t>
   </si>
@@ -1316,12 +1316,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2388,12 +2388,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -3919,7 +3913,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU2"/>
+  <dimension ref="A1:CT2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3928,7 +3922,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:98">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4223,11 +4217,8 @@
       <c r="CT1" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="2" spans="1:99" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4521,9 +4512,6 @@
       </c>
       <c r="CT2" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="CU2" s="2" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="789">
   <si>
     <t>alias</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3930,588 +3933,588 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -4549,1583 +4552,1583 @@
   <sheetData>
     <row r="1" spans="5:30">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AD1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="5:30">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="X2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AD2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="5:30">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AD3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="5:30">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AD4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="5:30">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="5:30">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AD6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="5:30">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AD7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="5:30">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AD8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="5:30">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="5:30">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="5:30">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="5:30">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="5:30">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="5:30">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AD14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="5:30">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="5:30">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AD16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="5:30">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AD17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="5:30">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="5:30">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AD19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="5:30">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AD20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="5:30">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AD21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="5:30">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AD22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="5:30">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AD23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="5:30">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AD24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="5:30">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AD25" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="5:30">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="5:30">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="5:30">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="5:30">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AD29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="5:30">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="5:30">
       <c r="AD31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="5:30">
       <c r="AD32" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="30:30">
       <c r="AD33" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="30:30">
       <c r="AD34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="30:30">
       <c r="AD35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="30:30">
       <c r="AD36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="30:30">
       <c r="AD37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="30:30">
       <c r="AD38" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="30:30">
       <c r="AD39" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="30:30">
       <c r="AD40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="30:30">
       <c r="AD41" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="30:30">
       <c r="AD42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="30:30">
       <c r="AD43" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="30:30">
       <c r="AD44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="30:30">
       <c r="AD45" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="30:30">
       <c r="AD46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="30:30">
       <c r="AD47" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="30:30">
       <c r="AD48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="30:30">
       <c r="AD49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="30:30">
       <c r="AD50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="30:30">
       <c r="AD51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="30:30">
       <c r="AD52" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="30:30">
       <c r="AD53" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="30:30">
       <c r="AD54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="30:30">
       <c r="AD55" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="30:30">
       <c r="AD56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="30:30">
       <c r="AD57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="30:30">
       <c r="AD58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="30:30">
       <c r="AD59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="30:30">
       <c r="AD60" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="30:30">
       <c r="AD61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="30:30">
       <c r="AD62" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="30:30">
       <c r="AD63" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="30:30">
       <c r="AD64" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="30:30">
       <c r="AD65" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="30:30">
       <c r="AD66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="30:30">
       <c r="AD67" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="30:30">
       <c r="AD68" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="30:30">
       <c r="AD69" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="30:30">
       <c r="AD70" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="30:30">
       <c r="AD71" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="30:30">
       <c r="AD72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="30:30">
       <c r="AD73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="30:30">
       <c r="AD74" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="30:30">
       <c r="AD75" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="30:30">
       <c r="AD76" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="30:30">
       <c r="AD77" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="30:30">
       <c r="AD78" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="30:30">
       <c r="AD79" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="30:30">
       <c r="AD80" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="30:30">
       <c r="AD81" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="30:30">
       <c r="AD82" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="30:30">
       <c r="AD83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="30:30">
       <c r="AD84" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="30:30">
       <c r="AD85" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="30:30">
       <c r="AD86" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="30:30">
       <c r="AD87" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="30:30">
       <c r="AD88" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="30:30">
       <c r="AD89" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="30:30">
       <c r="AD90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="30:30">
       <c r="AD91" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="30:30">
       <c r="AD92" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="30:30">
       <c r="AD93" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="30:30">
       <c r="AD94" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="30:30">
       <c r="AD95" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="30:30">
       <c r="AD96" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="30:30">
       <c r="AD97" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98" spans="30:30">
       <c r="AD98" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99" spans="30:30">
       <c r="AD99" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="30:30">
       <c r="AD100" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="30:30">
       <c r="AD101" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="30:30">
       <c r="AD102" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="30:30">
       <c r="AD103" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="30:30">
       <c r="AD104" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="30:30">
       <c r="AD105" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="30:30">
       <c r="AD106" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="30:30">
       <c r="AD107" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" spans="30:30">
       <c r="AD108" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="30:30">
       <c r="AD109" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="30:30">
       <c r="AD110" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="111" spans="30:30">
       <c r="AD111" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="30:30">
       <c r="AD112" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="30:30">
       <c r="AD113" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="30:30">
       <c r="AD114" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="30:30">
       <c r="AD115" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="30:30">
       <c r="AD116" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="30:30">
       <c r="AD117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="30:30">
       <c r="AD118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="30:30">
       <c r="AD119" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="30:30">
       <c r="AD120" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="30:30">
       <c r="AD121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="30:30">
       <c r="AD122" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="30:30">
       <c r="AD123" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="30:30">
       <c r="AD124" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="30:30">
       <c r="AD125" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="30:30">
       <c r="AD126" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="30:30">
       <c r="AD127" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="30:30">
       <c r="AD128" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="30:30">
       <c r="AD129" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="30:30">
       <c r="AD130" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="30:30">
       <c r="AD131" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="30:30">
       <c r="AD132" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="30:30">
       <c r="AD133" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="30:30">
       <c r="AD134" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="30:30">
       <c r="AD135" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="30:30">
       <c r="AD136" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="137" spans="30:30">
       <c r="AD137" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="30:30">
       <c r="AD138" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="30:30">
       <c r="AD139" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" spans="30:30">
       <c r="AD140" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="30:30">
       <c r="AD141" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="142" spans="30:30">
       <c r="AD142" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="143" spans="30:30">
       <c r="AD143" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="144" spans="30:30">
       <c r="AD144" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="145" spans="30:30">
       <c r="AD145" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="146" spans="30:30">
       <c r="AD146" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="30:30">
       <c r="AD147" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="148" spans="30:30">
       <c r="AD148" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="149" spans="30:30">
       <c r="AD149" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="150" spans="30:30">
       <c r="AD150" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="151" spans="30:30">
       <c r="AD151" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="152" spans="30:30">
       <c r="AD152" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="30:30">
       <c r="AD153" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="30:30">
       <c r="AD154" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="30:30">
       <c r="AD155" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="30:30">
       <c r="AD156" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="30:30">
       <c r="AD157" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="158" spans="30:30">
       <c r="AD158" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="159" spans="30:30">
       <c r="AD159" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="30:30">
       <c r="AD160" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="30:30">
       <c r="AD161" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="30:30">
       <c r="AD162" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="30:30">
       <c r="AD163" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="30:30">
       <c r="AD164" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="30:30">
       <c r="AD165" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="30:30">
       <c r="AD166" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="30:30">
       <c r="AD167" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="30:30">
       <c r="AD168" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="30:30">
       <c r="AD169" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="170" spans="30:30">
       <c r="AD170" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="171" spans="30:30">
       <c r="AD171" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="172" spans="30:30">
       <c r="AD172" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="173" spans="30:30">
       <c r="AD173" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="174" spans="30:30">
       <c r="AD174" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="175" spans="30:30">
       <c r="AD175" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="176" spans="30:30">
       <c r="AD176" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="177" spans="30:30">
       <c r="AD177" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="178" spans="30:30">
       <c r="AD178" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="179" spans="30:30">
       <c r="AD179" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="30:30">
       <c r="AD180" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="181" spans="30:30">
       <c r="AD181" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182" spans="30:30">
       <c r="AD182" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="30:30">
       <c r="AD183" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="184" spans="30:30">
       <c r="AD184" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" spans="30:30">
       <c r="AD185" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="186" spans="30:30">
       <c r="AD186" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="30:30">
       <c r="AD187" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="30:30">
       <c r="AD188" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="189" spans="30:30">
       <c r="AD189" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="190" spans="30:30">
       <c r="AD190" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="191" spans="30:30">
       <c r="AD191" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="30:30">
       <c r="AD192" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="193" spans="30:30">
       <c r="AD193" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="194" spans="30:30">
       <c r="AD194" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="195" spans="30:30">
       <c r="AD195" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="196" spans="30:30">
       <c r="AD196" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="197" spans="30:30">
       <c r="AD197" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="198" spans="30:30">
       <c r="AD198" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="199" spans="30:30">
       <c r="AD199" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="200" spans="30:30">
       <c r="AD200" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="30:30">
       <c r="AD201" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="202" spans="30:30">
       <c r="AD202" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="30:30">
       <c r="AD203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="204" spans="30:30">
       <c r="AD204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="205" spans="30:30">
       <c r="AD205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="206" spans="30:30">
       <c r="AD206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="207" spans="30:30">
       <c r="AD207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="30:30">
       <c r="AD208" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="30:30">
       <c r="AD209" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="30:30">
       <c r="AD210" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="211" spans="30:30">
       <c r="AD211" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="30:30">
       <c r="AD212" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="213" spans="30:30">
       <c r="AD213" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="30:30">
       <c r="AD214" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="215" spans="30:30">
       <c r="AD215" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="216" spans="30:30">
       <c r="AD216" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="30:30">
       <c r="AD217" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="30:30">
       <c r="AD218" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="30:30">
       <c r="AD219" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="30:30">
       <c r="AD220" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="221" spans="30:30">
       <c r="AD221" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="222" spans="30:30">
       <c r="AD222" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="223" spans="30:30">
       <c r="AD223" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="224" spans="30:30">
       <c r="AD224" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="225" spans="30:30">
       <c r="AD225" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="30:30">
       <c r="AD226" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="227" spans="30:30">
       <c r="AD227" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" spans="30:30">
       <c r="AD228" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="229" spans="30:30">
       <c r="AD229" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" spans="30:30">
       <c r="AD230" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="231" spans="30:30">
       <c r="AD231" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="232" spans="30:30">
       <c r="AD232" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="233" spans="30:30">
       <c r="AD233" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="234" spans="30:30">
       <c r="AD234" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="235" spans="30:30">
       <c r="AD235" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="236" spans="30:30">
       <c r="AD236" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="237" spans="30:30">
       <c r="AD237" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="238" spans="30:30">
       <c r="AD238" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="239" spans="30:30">
       <c r="AD239" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="240" spans="30:30">
       <c r="AD240" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="241" spans="30:30">
       <c r="AD241" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="242" spans="30:30">
       <c r="AD242" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="243" spans="30:30">
       <c r="AD243" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="244" spans="30:30">
       <c r="AD244" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="245" spans="30:30">
       <c r="AD245" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="246" spans="30:30">
       <c r="AD246" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="247" spans="30:30">
       <c r="AD247" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="248" spans="30:30">
       <c r="AD248" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="249" spans="30:30">
       <c r="AD249" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="250" spans="30:30">
       <c r="AD250" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="251" spans="30:30">
       <c r="AD251" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="30:30">
       <c r="AD252" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="253" spans="30:30">
       <c r="AD253" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="254" spans="30:30">
       <c r="AD254" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="255" spans="30:30">
       <c r="AD255" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="30:30">
       <c r="AD256" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="257" spans="30:30">
       <c r="AD257" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="258" spans="30:30">
       <c r="AD258" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="259" spans="30:30">
       <c r="AD259" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="260" spans="30:30">
       <c r="AD260" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="261" spans="30:30">
       <c r="AD261" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" spans="30:30">
       <c r="AD262" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="263" spans="30:30">
       <c r="AD263" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="30:30">
       <c r="AD264" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="30:30">
       <c r="AD265" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="266" spans="30:30">
       <c r="AD266" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="267" spans="30:30">
       <c r="AD267" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="268" spans="30:30">
       <c r="AD268" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="30:30">
       <c r="AD269" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="270" spans="30:30">
       <c r="AD270" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="271" spans="30:30">
       <c r="AD271" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="272" spans="30:30">
       <c r="AD272" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="273" spans="30:30">
       <c r="AD273" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="274" spans="30:30">
       <c r="AD274" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="275" spans="30:30">
       <c r="AD275" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="276" spans="30:30">
       <c r="AD276" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="277" spans="30:30">
       <c r="AD277" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="278" spans="30:30">
       <c r="AD278" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="279" spans="30:30">
       <c r="AD279" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="280" spans="30:30">
       <c r="AD280" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="281" spans="30:30">
       <c r="AD281" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="282" spans="30:30">
       <c r="AD282" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="283" spans="30:30">
       <c r="AD283" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" spans="30:30">
       <c r="AD284" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="285" spans="30:30">
       <c r="AD285" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="286" spans="30:30">
       <c r="AD286" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="287" spans="30:30">
       <c r="AD287" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="288" spans="30:30">
       <c r="AD288" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -116,7 +116,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -134,7 +134,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AD$1:$AD$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="790">
   <si>
     <t>alias</t>
   </si>
@@ -1127,6 +1127,72 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1955,6 +2021,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1995,72 +2064,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -4014,211 +4017,211 @@
         <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>651</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>653</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>655</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>657</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
@@ -4310,211 +4313,211 @@
         <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>652</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>654</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>656</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4537,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4544,13 +4547,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AD288"/>
+  <dimension ref="E1:AO289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:30">
+    <row r="1" spans="5:41">
       <c r="E1" t="s">
         <v>266</v>
       </c>
@@ -4566,11 +4569,11 @@
       <c r="X1" t="s">
         <v>348</v>
       </c>
-      <c r="AD1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="2" spans="5:30">
+      <c r="AO1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="5:41">
       <c r="E2" t="s">
         <v>267</v>
       </c>
@@ -4586,11 +4589,11 @@
       <c r="X2" t="s">
         <v>349</v>
       </c>
-      <c r="AD2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="5:30">
+      <c r="AO2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="5:41">
       <c r="E3" t="s">
         <v>268</v>
       </c>
@@ -4603,11 +4606,11 @@
       <c r="X3" t="s">
         <v>350</v>
       </c>
-      <c r="AD3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="5:30">
+      <c r="AO3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="5:41">
       <c r="E4" t="s">
         <v>269</v>
       </c>
@@ -4617,11 +4620,11 @@
       <c r="H4" t="s">
         <v>310</v>
       </c>
-      <c r="AD4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="5:30">
+      <c r="AO4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="5:41">
       <c r="E5" t="s">
         <v>270</v>
       </c>
@@ -4631,1504 +4634,1509 @@
       <c r="H5" t="s">
         <v>311</v>
       </c>
-      <c r="AD5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="5:30">
+      <c r="AO5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="5:41">
       <c r="E6" t="s">
         <v>271</v>
       </c>
       <c r="H6" t="s">
         <v>312</v>
       </c>
-      <c r="AD6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="5:30">
+      <c r="AO6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="5:41">
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AD7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="5:30">
+      <c r="AO7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="5:41">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AD8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="5:30">
+      <c r="AO8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="5:41">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AD9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="5:30">
+      <c r="AO9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="5:41">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AD10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="5:30">
+      <c r="AO10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="5:41">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AD11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="5:30">
+      <c r="AO11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="5:41">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AD12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="5:30">
+      <c r="AO12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="5:41">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AD13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="5:30">
+      <c r="AO13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="5:41">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AD14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="5:30">
+      <c r="AO14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="5:41">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AD15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="5:30">
+      <c r="AO15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="5:41">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AD16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="5:30">
+      <c r="AO16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="5:41">
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AD17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="5:30">
+      <c r="AO17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="5:41">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AD18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="5:30">
+      <c r="AO18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="5:41">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AD19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="5:30">
+      <c r="AO19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="5:41">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AD20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="5:30">
+      <c r="AO20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="5:41">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AD21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="5:30">
+      <c r="AO21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="5:41">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AD22" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="5:30">
+      <c r="AO22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="5:41">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AD23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="5:30">
+      <c r="AO23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="5:41">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AD24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="5:30">
+      <c r="AO24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="5:41">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AD25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="5:30">
+      <c r="AO25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="5:41">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AD26" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="5:30">
+      <c r="AO26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="5:41">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AD27" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="5:30">
+      <c r="AO27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="5:41">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AD28" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="5:30">
+      <c r="AO28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="5:41">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AD29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="5:30">
+      <c r="AO29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="5:41">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AD30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="5:30">
-      <c r="AD31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="5:30">
-      <c r="AD32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="30:30">
-      <c r="AD33" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="30:30">
-      <c r="AD34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="30:30">
-      <c r="AD35" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="30:30">
-      <c r="AD36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="37" spans="30:30">
-      <c r="AD37" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="38" spans="30:30">
-      <c r="AD38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="30:30">
-      <c r="AD39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="40" spans="30:30">
-      <c r="AD40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="41" spans="30:30">
-      <c r="AD41" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="30:30">
-      <c r="AD42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="30:30">
-      <c r="AD43" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="30:30">
-      <c r="AD44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="30:30">
-      <c r="AD45" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="30:30">
-      <c r="AD46" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="30:30">
-      <c r="AD47" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="48" spans="30:30">
-      <c r="AD48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="49" spans="30:30">
-      <c r="AD49" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="30:30">
-      <c r="AD50" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="30:30">
-      <c r="AD51" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="52" spans="30:30">
-      <c r="AD52" t="s">
+      <c r="AO30" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="30:30">
-      <c r="AD53" t="s">
+    <row r="31" spans="5:41">
+      <c r="AO31" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="30:30">
-      <c r="AD54" t="s">
+    <row r="32" spans="5:41">
+      <c r="AO32" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="30:30">
-      <c r="AD55" t="s">
+    <row r="33" spans="41:41">
+      <c r="AO33" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="30:30">
-      <c r="AD56" t="s">
+    <row r="34" spans="41:41">
+      <c r="AO34" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="30:30">
-      <c r="AD57" t="s">
+    <row r="35" spans="41:41">
+      <c r="AO35" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="58" spans="30:30">
-      <c r="AD58" t="s">
+    <row r="36" spans="41:41">
+      <c r="AO36" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="30:30">
-      <c r="AD59" t="s">
+    <row r="37" spans="41:41">
+      <c r="AO37" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="30:30">
-      <c r="AD60" t="s">
+    <row r="38" spans="41:41">
+      <c r="AO38" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="61" spans="30:30">
-      <c r="AD61" t="s">
+    <row r="39" spans="41:41">
+      <c r="AO39" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="62" spans="30:30">
-      <c r="AD62" t="s">
+    <row r="40" spans="41:41">
+      <c r="AO40" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="63" spans="30:30">
-      <c r="AD63" t="s">
+    <row r="41" spans="41:41">
+      <c r="AO41" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="30:30">
-      <c r="AD64" t="s">
+    <row r="42" spans="41:41">
+      <c r="AO42" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="30:30">
-      <c r="AD65" t="s">
+    <row r="43" spans="41:41">
+      <c r="AO43" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="30:30">
-      <c r="AD66" t="s">
+    <row r="44" spans="41:41">
+      <c r="AO44" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="30:30">
-      <c r="AD67" t="s">
+    <row r="45" spans="41:41">
+      <c r="AO45" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="30:30">
-      <c r="AD68" t="s">
+    <row r="46" spans="41:41">
+      <c r="AO46" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="30:30">
-      <c r="AD69" t="s">
+    <row r="47" spans="41:41">
+      <c r="AO47" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="30:30">
-      <c r="AD70" t="s">
+    <row r="48" spans="41:41">
+      <c r="AO48" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="30:30">
-      <c r="AD71" t="s">
+    <row r="49" spans="41:41">
+      <c r="AO49" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="30:30">
-      <c r="AD72" t="s">
+    <row r="50" spans="41:41">
+      <c r="AO50" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="30:30">
-      <c r="AD73" t="s">
+    <row r="51" spans="41:41">
+      <c r="AO51" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="30:30">
-      <c r="AD74" t="s">
+    <row r="52" spans="41:41">
+      <c r="AO52" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="75" spans="30:30">
-      <c r="AD75" t="s">
+    <row r="53" spans="41:41">
+      <c r="AO53" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="30:30">
-      <c r="AD76" t="s">
+    <row r="54" spans="41:41">
+      <c r="AO54" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="30:30">
-      <c r="AD77" t="s">
+    <row r="55" spans="41:41">
+      <c r="AO55" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="78" spans="30:30">
-      <c r="AD78" t="s">
+    <row r="56" spans="41:41">
+      <c r="AO56" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="79" spans="30:30">
-      <c r="AD79" t="s">
+    <row r="57" spans="41:41">
+      <c r="AO57" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="30:30">
-      <c r="AD80" t="s">
+    <row r="58" spans="41:41">
+      <c r="AO58" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="81" spans="30:30">
-      <c r="AD81" t="s">
+    <row r="59" spans="41:41">
+      <c r="AO59" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="30:30">
-      <c r="AD82" t="s">
+    <row r="60" spans="41:41">
+      <c r="AO60" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="30:30">
-      <c r="AD83" t="s">
+    <row r="61" spans="41:41">
+      <c r="AO61" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="84" spans="30:30">
-      <c r="AD84" t="s">
+    <row r="62" spans="41:41">
+      <c r="AO62" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="30:30">
-      <c r="AD85" t="s">
+    <row r="63" spans="41:41">
+      <c r="AO63" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="86" spans="30:30">
-      <c r="AD86" t="s">
+    <row r="64" spans="41:41">
+      <c r="AO64" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="87" spans="30:30">
-      <c r="AD87" t="s">
+    <row r="65" spans="41:41">
+      <c r="AO65" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="30:30">
-      <c r="AD88" t="s">
+    <row r="66" spans="41:41">
+      <c r="AO66" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="30:30">
-      <c r="AD89" t="s">
+    <row r="67" spans="41:41">
+      <c r="AO67" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="30:30">
-      <c r="AD90" t="s">
+    <row r="68" spans="41:41">
+      <c r="AO68" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="91" spans="30:30">
-      <c r="AD91" t="s">
+    <row r="69" spans="41:41">
+      <c r="AO69" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="30:30">
-      <c r="AD92" t="s">
+    <row r="70" spans="41:41">
+      <c r="AO70" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="93" spans="30:30">
-      <c r="AD93" t="s">
+    <row r="71" spans="41:41">
+      <c r="AO71" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="94" spans="30:30">
-      <c r="AD94" t="s">
+    <row r="72" spans="41:41">
+      <c r="AO72" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="95" spans="30:30">
-      <c r="AD95" t="s">
+    <row r="73" spans="41:41">
+      <c r="AO73" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="30:30">
-      <c r="AD96" t="s">
+    <row r="74" spans="41:41">
+      <c r="AO74" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="97" spans="30:30">
-      <c r="AD97" t="s">
+    <row r="75" spans="41:41">
+      <c r="AO75" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="98" spans="30:30">
-      <c r="AD98" t="s">
+    <row r="76" spans="41:41">
+      <c r="AO76" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="30:30">
-      <c r="AD99" t="s">
+    <row r="77" spans="41:41">
+      <c r="AO77" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="100" spans="30:30">
-      <c r="AD100" t="s">
+    <row r="78" spans="41:41">
+      <c r="AO78" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="101" spans="30:30">
-      <c r="AD101" t="s">
+    <row r="79" spans="41:41">
+      <c r="AO79" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="30:30">
-      <c r="AD102" t="s">
+    <row r="80" spans="41:41">
+      <c r="AO80" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="103" spans="30:30">
-      <c r="AD103" t="s">
+    <row r="81" spans="41:41">
+      <c r="AO81" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="104" spans="30:30">
-      <c r="AD104" t="s">
+    <row r="82" spans="41:41">
+      <c r="AO82" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="105" spans="30:30">
-      <c r="AD105" t="s">
+    <row r="83" spans="41:41">
+      <c r="AO83" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="30:30">
-      <c r="AD106" t="s">
+    <row r="84" spans="41:41">
+      <c r="AO84" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="107" spans="30:30">
-      <c r="AD107" t="s">
+    <row r="85" spans="41:41">
+      <c r="AO85" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="30:30">
-      <c r="AD108" t="s">
+    <row r="86" spans="41:41">
+      <c r="AO86" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="109" spans="30:30">
-      <c r="AD109" t="s">
+    <row r="87" spans="41:41">
+      <c r="AO87" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="110" spans="30:30">
-      <c r="AD110" t="s">
+    <row r="88" spans="41:41">
+      <c r="AO88" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="111" spans="30:30">
-      <c r="AD111" t="s">
+    <row r="89" spans="41:41">
+      <c r="AO89" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="30:30">
-      <c r="AD112" t="s">
+    <row r="90" spans="41:41">
+      <c r="AO90" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="113" spans="30:30">
-      <c r="AD113" t="s">
+    <row r="91" spans="41:41">
+      <c r="AO91" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="114" spans="30:30">
-      <c r="AD114" t="s">
+    <row r="92" spans="41:41">
+      <c r="AO92" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="30:30">
-      <c r="AD115" t="s">
+    <row r="93" spans="41:41">
+      <c r="AO93" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="116" spans="30:30">
-      <c r="AD116" t="s">
+    <row r="94" spans="41:41">
+      <c r="AO94" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="30:30">
-      <c r="AD117" t="s">
+    <row r="95" spans="41:41">
+      <c r="AO95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="30:30">
-      <c r="AD118" t="s">
+    <row r="96" spans="41:41">
+      <c r="AO96" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="119" spans="30:30">
-      <c r="AD119" t="s">
+    <row r="97" spans="41:41">
+      <c r="AO97" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="120" spans="30:30">
-      <c r="AD120" t="s">
+    <row r="98" spans="41:41">
+      <c r="AO98" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="121" spans="30:30">
-      <c r="AD121" t="s">
+    <row r="99" spans="41:41">
+      <c r="AO99" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="30:30">
-      <c r="AD122" t="s">
+    <row r="100" spans="41:41">
+      <c r="AO100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="123" spans="30:30">
-      <c r="AD123" t="s">
+    <row r="101" spans="41:41">
+      <c r="AO101" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="124" spans="30:30">
-      <c r="AD124" t="s">
+    <row r="102" spans="41:41">
+      <c r="AO102" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="30:30">
-      <c r="AD125" t="s">
+    <row r="103" spans="41:41">
+      <c r="AO103" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="126" spans="30:30">
-      <c r="AD126" t="s">
+    <row r="104" spans="41:41">
+      <c r="AO104" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="127" spans="30:30">
-      <c r="AD127" t="s">
+    <row r="105" spans="41:41">
+      <c r="AO105" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="128" spans="30:30">
-      <c r="AD128" t="s">
+    <row r="106" spans="41:41">
+      <c r="AO106" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="129" spans="30:30">
-      <c r="AD129" t="s">
+    <row r="107" spans="41:41">
+      <c r="AO107" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="130" spans="30:30">
-      <c r="AD130" t="s">
+    <row r="108" spans="41:41">
+      <c r="AO108" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="131" spans="30:30">
-      <c r="AD131" t="s">
+    <row r="109" spans="41:41">
+      <c r="AO109" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="132" spans="30:30">
-      <c r="AD132" t="s">
+    <row r="110" spans="41:41">
+      <c r="AO110" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="133" spans="30:30">
-      <c r="AD133" t="s">
+    <row r="111" spans="41:41">
+      <c r="AO111" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="134" spans="30:30">
-      <c r="AD134" t="s">
+    <row r="112" spans="41:41">
+      <c r="AO112" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="135" spans="30:30">
-      <c r="AD135" t="s">
+    <row r="113" spans="41:41">
+      <c r="AO113" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="136" spans="30:30">
-      <c r="AD136" t="s">
+    <row r="114" spans="41:41">
+      <c r="AO114" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="137" spans="30:30">
-      <c r="AD137" t="s">
+    <row r="115" spans="41:41">
+      <c r="AO115" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="138" spans="30:30">
-      <c r="AD138" t="s">
+    <row r="116" spans="41:41">
+      <c r="AO116" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="30:30">
-      <c r="AD139" t="s">
+    <row r="117" spans="41:41">
+      <c r="AO117" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="140" spans="30:30">
-      <c r="AD140" t="s">
+    <row r="118" spans="41:41">
+      <c r="AO118" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="141" spans="30:30">
-      <c r="AD141" t="s">
+    <row r="119" spans="41:41">
+      <c r="AO119" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="142" spans="30:30">
-      <c r="AD142" t="s">
+    <row r="120" spans="41:41">
+      <c r="AO120" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="143" spans="30:30">
-      <c r="AD143" t="s">
+    <row r="121" spans="41:41">
+      <c r="AO121" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="144" spans="30:30">
-      <c r="AD144" t="s">
+    <row r="122" spans="41:41">
+      <c r="AO122" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="145" spans="30:30">
-      <c r="AD145" t="s">
+    <row r="123" spans="41:41">
+      <c r="AO123" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="146" spans="30:30">
-      <c r="AD146" t="s">
+    <row r="124" spans="41:41">
+      <c r="AO124" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="147" spans="30:30">
-      <c r="AD147" t="s">
+    <row r="125" spans="41:41">
+      <c r="AO125" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="148" spans="30:30">
-      <c r="AD148" t="s">
+    <row r="126" spans="41:41">
+      <c r="AO126" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="149" spans="30:30">
-      <c r="AD149" t="s">
+    <row r="127" spans="41:41">
+      <c r="AO127" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="150" spans="30:30">
-      <c r="AD150" t="s">
+    <row r="128" spans="41:41">
+      <c r="AO128" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="151" spans="30:30">
-      <c r="AD151" t="s">
+    <row r="129" spans="41:41">
+      <c r="AO129" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="152" spans="30:30">
-      <c r="AD152" t="s">
+    <row r="130" spans="41:41">
+      <c r="AO130" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="153" spans="30:30">
-      <c r="AD153" t="s">
+    <row r="131" spans="41:41">
+      <c r="AO131" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="154" spans="30:30">
-      <c r="AD154" t="s">
+    <row r="132" spans="41:41">
+      <c r="AO132" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="155" spans="30:30">
-      <c r="AD155" t="s">
+    <row r="133" spans="41:41">
+      <c r="AO133" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="156" spans="30:30">
-      <c r="AD156" t="s">
+    <row r="134" spans="41:41">
+      <c r="AO134" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="157" spans="30:30">
-      <c r="AD157" t="s">
+    <row r="135" spans="41:41">
+      <c r="AO135" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="158" spans="30:30">
-      <c r="AD158" t="s">
+    <row r="136" spans="41:41">
+      <c r="AO136" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="159" spans="30:30">
-      <c r="AD159" t="s">
+    <row r="137" spans="41:41">
+      <c r="AO137" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="160" spans="30:30">
-      <c r="AD160" t="s">
+    <row r="138" spans="41:41">
+      <c r="AO138" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="161" spans="30:30">
-      <c r="AD161" t="s">
+    <row r="139" spans="41:41">
+      <c r="AO139" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="162" spans="30:30">
-      <c r="AD162" t="s">
+    <row r="140" spans="41:41">
+      <c r="AO140" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="163" spans="30:30">
-      <c r="AD163" t="s">
+    <row r="141" spans="41:41">
+      <c r="AO141" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="164" spans="30:30">
-      <c r="AD164" t="s">
+    <row r="142" spans="41:41">
+      <c r="AO142" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="165" spans="30:30">
-      <c r="AD165" t="s">
+    <row r="143" spans="41:41">
+      <c r="AO143" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="166" spans="30:30">
-      <c r="AD166" t="s">
+    <row r="144" spans="41:41">
+      <c r="AO144" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="167" spans="30:30">
-      <c r="AD167" t="s">
+    <row r="145" spans="41:41">
+      <c r="AO145" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="168" spans="30:30">
-      <c r="AD168" t="s">
+    <row r="146" spans="41:41">
+      <c r="AO146" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="169" spans="30:30">
-      <c r="AD169" t="s">
+    <row r="147" spans="41:41">
+      <c r="AO147" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="170" spans="30:30">
-      <c r="AD170" t="s">
+    <row r="148" spans="41:41">
+      <c r="AO148" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="171" spans="30:30">
-      <c r="AD171" t="s">
+    <row r="149" spans="41:41">
+      <c r="AO149" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="172" spans="30:30">
-      <c r="AD172" t="s">
+    <row r="150" spans="41:41">
+      <c r="AO150" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="30:30">
-      <c r="AD173" t="s">
+    <row r="151" spans="41:41">
+      <c r="AO151" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="174" spans="30:30">
-      <c r="AD174" t="s">
+    <row r="152" spans="41:41">
+      <c r="AO152" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="175" spans="30:30">
-      <c r="AD175" t="s">
+    <row r="153" spans="41:41">
+      <c r="AO153" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="176" spans="30:30">
-      <c r="AD176" t="s">
+    <row r="154" spans="41:41">
+      <c r="AO154" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="177" spans="30:30">
-      <c r="AD177" t="s">
+    <row r="155" spans="41:41">
+      <c r="AO155" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="178" spans="30:30">
-      <c r="AD178" t="s">
+    <row r="156" spans="41:41">
+      <c r="AO156" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="179" spans="30:30">
-      <c r="AD179" t="s">
+    <row r="157" spans="41:41">
+      <c r="AO157" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="180" spans="30:30">
-      <c r="AD180" t="s">
+    <row r="158" spans="41:41">
+      <c r="AO158" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="30:30">
-      <c r="AD181" t="s">
+    <row r="159" spans="41:41">
+      <c r="AO159" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="182" spans="30:30">
-      <c r="AD182" t="s">
+    <row r="160" spans="41:41">
+      <c r="AO160" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="183" spans="30:30">
-      <c r="AD183" t="s">
+    <row r="161" spans="41:41">
+      <c r="AO161" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="184" spans="30:30">
-      <c r="AD184" t="s">
+    <row r="162" spans="41:41">
+      <c r="AO162" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="185" spans="30:30">
-      <c r="AD185" t="s">
+    <row r="163" spans="41:41">
+      <c r="AO163" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="186" spans="30:30">
-      <c r="AD186" t="s">
+    <row r="164" spans="41:41">
+      <c r="AO164" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="187" spans="30:30">
-      <c r="AD187" t="s">
+    <row r="165" spans="41:41">
+      <c r="AO165" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="188" spans="30:30">
-      <c r="AD188" t="s">
+    <row r="166" spans="41:41">
+      <c r="AO166" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="189" spans="30:30">
-      <c r="AD189" t="s">
+    <row r="167" spans="41:41">
+      <c r="AO167" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="190" spans="30:30">
-      <c r="AD190" t="s">
+    <row r="168" spans="41:41">
+      <c r="AO168" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="191" spans="30:30">
-      <c r="AD191" t="s">
+    <row r="169" spans="41:41">
+      <c r="AO169" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="192" spans="30:30">
-      <c r="AD192" t="s">
+    <row r="170" spans="41:41">
+      <c r="AO170" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="193" spans="30:30">
-      <c r="AD193" t="s">
+    <row r="171" spans="41:41">
+      <c r="AO171" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="194" spans="30:30">
-      <c r="AD194" t="s">
+    <row r="172" spans="41:41">
+      <c r="AO172" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="195" spans="30:30">
-      <c r="AD195" t="s">
+    <row r="173" spans="41:41">
+      <c r="AO173" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="196" spans="30:30">
-      <c r="AD196" t="s">
+    <row r="174" spans="41:41">
+      <c r="AO174" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="197" spans="30:30">
-      <c r="AD197" t="s">
+    <row r="175" spans="41:41">
+      <c r="AO175" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="198" spans="30:30">
-      <c r="AD198" t="s">
+    <row r="176" spans="41:41">
+      <c r="AO176" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="199" spans="30:30">
-      <c r="AD199" t="s">
+    <row r="177" spans="41:41">
+      <c r="AO177" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="200" spans="30:30">
-      <c r="AD200" t="s">
+    <row r="178" spans="41:41">
+      <c r="AO178" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="201" spans="30:30">
-      <c r="AD201" t="s">
+    <row r="179" spans="41:41">
+      <c r="AO179" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="202" spans="30:30">
-      <c r="AD202" t="s">
+    <row r="180" spans="41:41">
+      <c r="AO180" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="203" spans="30:30">
-      <c r="AD203" t="s">
+    <row r="181" spans="41:41">
+      <c r="AO181" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="204" spans="30:30">
-      <c r="AD204" t="s">
+    <row r="182" spans="41:41">
+      <c r="AO182" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="205" spans="30:30">
-      <c r="AD205" t="s">
+    <row r="183" spans="41:41">
+      <c r="AO183" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="206" spans="30:30">
-      <c r="AD206" t="s">
+    <row r="184" spans="41:41">
+      <c r="AO184" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="207" spans="30:30">
-      <c r="AD207" t="s">
+    <row r="185" spans="41:41">
+      <c r="AO185" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="208" spans="30:30">
-      <c r="AD208" t="s">
+    <row r="186" spans="41:41">
+      <c r="AO186" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="209" spans="30:30">
-      <c r="AD209" t="s">
+    <row r="187" spans="41:41">
+      <c r="AO187" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="210" spans="30:30">
-      <c r="AD210" t="s">
+    <row r="188" spans="41:41">
+      <c r="AO188" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="211" spans="30:30">
-      <c r="AD211" t="s">
+    <row r="189" spans="41:41">
+      <c r="AO189" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="212" spans="30:30">
-      <c r="AD212" t="s">
+    <row r="190" spans="41:41">
+      <c r="AO190" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="213" spans="30:30">
-      <c r="AD213" t="s">
+    <row r="191" spans="41:41">
+      <c r="AO191" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="214" spans="30:30">
-      <c r="AD214" t="s">
+    <row r="192" spans="41:41">
+      <c r="AO192" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="215" spans="30:30">
-      <c r="AD215" t="s">
+    <row r="193" spans="41:41">
+      <c r="AO193" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="216" spans="30:30">
-      <c r="AD216" t="s">
+    <row r="194" spans="41:41">
+      <c r="AO194" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="217" spans="30:30">
-      <c r="AD217" t="s">
+    <row r="195" spans="41:41">
+      <c r="AO195" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="218" spans="30:30">
-      <c r="AD218" t="s">
+    <row r="196" spans="41:41">
+      <c r="AO196" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="219" spans="30:30">
-      <c r="AD219" t="s">
+    <row r="197" spans="41:41">
+      <c r="AO197" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="220" spans="30:30">
-      <c r="AD220" t="s">
+    <row r="198" spans="41:41">
+      <c r="AO198" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="221" spans="30:30">
-      <c r="AD221" t="s">
+    <row r="199" spans="41:41">
+      <c r="AO199" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="222" spans="30:30">
-      <c r="AD222" t="s">
+    <row r="200" spans="41:41">
+      <c r="AO200" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="223" spans="30:30">
-      <c r="AD223" t="s">
+    <row r="201" spans="41:41">
+      <c r="AO201" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="224" spans="30:30">
-      <c r="AD224" t="s">
+    <row r="202" spans="41:41">
+      <c r="AO202" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="225" spans="30:30">
-      <c r="AD225" t="s">
+    <row r="203" spans="41:41">
+      <c r="AO203" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="226" spans="30:30">
-      <c r="AD226" t="s">
+    <row r="204" spans="41:41">
+      <c r="AO204" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="227" spans="30:30">
-      <c r="AD227" t="s">
+    <row r="205" spans="41:41">
+      <c r="AO205" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="228" spans="30:30">
-      <c r="AD228" t="s">
+    <row r="206" spans="41:41">
+      <c r="AO206" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="229" spans="30:30">
-      <c r="AD229" t="s">
+    <row r="207" spans="41:41">
+      <c r="AO207" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="230" spans="30:30">
-      <c r="AD230" t="s">
+    <row r="208" spans="41:41">
+      <c r="AO208" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="231" spans="30:30">
-      <c r="AD231" t="s">
+    <row r="209" spans="41:41">
+      <c r="AO209" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="232" spans="30:30">
-      <c r="AD232" t="s">
+    <row r="210" spans="41:41">
+      <c r="AO210" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="233" spans="30:30">
-      <c r="AD233" t="s">
+    <row r="211" spans="41:41">
+      <c r="AO211" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="234" spans="30:30">
-      <c r="AD234" t="s">
+    <row r="212" spans="41:41">
+      <c r="AO212" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="235" spans="30:30">
-      <c r="AD235" t="s">
+    <row r="213" spans="41:41">
+      <c r="AO213" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="236" spans="30:30">
-      <c r="AD236" t="s">
+    <row r="214" spans="41:41">
+      <c r="AO214" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="237" spans="30:30">
-      <c r="AD237" t="s">
+    <row r="215" spans="41:41">
+      <c r="AO215" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="238" spans="30:30">
-      <c r="AD238" t="s">
+    <row r="216" spans="41:41">
+      <c r="AO216" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="239" spans="30:30">
-      <c r="AD239" t="s">
+    <row r="217" spans="41:41">
+      <c r="AO217" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="240" spans="30:30">
-      <c r="AD240" t="s">
+    <row r="218" spans="41:41">
+      <c r="AO218" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="241" spans="30:30">
-      <c r="AD241" t="s">
+    <row r="219" spans="41:41">
+      <c r="AO219" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="242" spans="30:30">
-      <c r="AD242" t="s">
+    <row r="220" spans="41:41">
+      <c r="AO220" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="243" spans="30:30">
-      <c r="AD243" t="s">
+    <row r="221" spans="41:41">
+      <c r="AO221" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="244" spans="30:30">
-      <c r="AD244" t="s">
+    <row r="222" spans="41:41">
+      <c r="AO222" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="245" spans="30:30">
-      <c r="AD245" t="s">
+    <row r="223" spans="41:41">
+      <c r="AO223" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="246" spans="30:30">
-      <c r="AD246" t="s">
+    <row r="224" spans="41:41">
+      <c r="AO224" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="247" spans="30:30">
-      <c r="AD247" t="s">
+    <row r="225" spans="41:41">
+      <c r="AO225" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="248" spans="30:30">
-      <c r="AD248" t="s">
+    <row r="226" spans="41:41">
+      <c r="AO226" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="249" spans="30:30">
-      <c r="AD249" t="s">
+    <row r="227" spans="41:41">
+      <c r="AO227" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="250" spans="30:30">
-      <c r="AD250" t="s">
+    <row r="228" spans="41:41">
+      <c r="AO228" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="251" spans="30:30">
-      <c r="AD251" t="s">
+    <row r="229" spans="41:41">
+      <c r="AO229" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="252" spans="30:30">
-      <c r="AD252" t="s">
+    <row r="230" spans="41:41">
+      <c r="AO230" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="253" spans="30:30">
-      <c r="AD253" t="s">
+    <row r="231" spans="41:41">
+      <c r="AO231" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="254" spans="30:30">
-      <c r="AD254" t="s">
+    <row r="232" spans="41:41">
+      <c r="AO232" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="255" spans="30:30">
-      <c r="AD255" t="s">
+    <row r="233" spans="41:41">
+      <c r="AO233" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="256" spans="30:30">
-      <c r="AD256" t="s">
+    <row r="234" spans="41:41">
+      <c r="AO234" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="257" spans="30:30">
-      <c r="AD257" t="s">
+    <row r="235" spans="41:41">
+      <c r="AO235" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="258" spans="30:30">
-      <c r="AD258" t="s">
+    <row r="236" spans="41:41">
+      <c r="AO236" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="259" spans="30:30">
-      <c r="AD259" t="s">
+    <row r="237" spans="41:41">
+      <c r="AO237" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="260" spans="30:30">
-      <c r="AD260" t="s">
+    <row r="238" spans="41:41">
+      <c r="AO238" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="261" spans="30:30">
-      <c r="AD261" t="s">
+    <row r="239" spans="41:41">
+      <c r="AO239" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="262" spans="30:30">
-      <c r="AD262" t="s">
+    <row r="240" spans="41:41">
+      <c r="AO240" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="263" spans="30:30">
-      <c r="AD263" t="s">
+    <row r="241" spans="41:41">
+      <c r="AO241" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="264" spans="30:30">
-      <c r="AD264" t="s">
+    <row r="242" spans="41:41">
+      <c r="AO242" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="265" spans="30:30">
-      <c r="AD265" t="s">
+    <row r="243" spans="41:41">
+      <c r="AO243" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="266" spans="30:30">
-      <c r="AD266" t="s">
+    <row r="244" spans="41:41">
+      <c r="AO244" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="267" spans="30:30">
-      <c r="AD267" t="s">
+    <row r="245" spans="41:41">
+      <c r="AO245" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="268" spans="30:30">
-      <c r="AD268" t="s">
+    <row r="246" spans="41:41">
+      <c r="AO246" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="269" spans="30:30">
-      <c r="AD269" t="s">
+    <row r="247" spans="41:41">
+      <c r="AO247" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="270" spans="30:30">
-      <c r="AD270" t="s">
+    <row r="248" spans="41:41">
+      <c r="AO248" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="30:30">
-      <c r="AD271" t="s">
+    <row r="249" spans="41:41">
+      <c r="AO249" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="272" spans="30:30">
-      <c r="AD272" t="s">
+    <row r="250" spans="41:41">
+      <c r="AO250" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="273" spans="30:30">
-      <c r="AD273" t="s">
+    <row r="251" spans="41:41">
+      <c r="AO251" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="274" spans="30:30">
-      <c r="AD274" t="s">
+    <row r="252" spans="41:41">
+      <c r="AO252" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="30:30">
-      <c r="AD275" t="s">
+    <row r="253" spans="41:41">
+      <c r="AO253" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="276" spans="30:30">
-      <c r="AD276" t="s">
+    <row r="254" spans="41:41">
+      <c r="AO254" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="277" spans="30:30">
-      <c r="AD277" t="s">
+    <row r="255" spans="41:41">
+      <c r="AO255" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="278" spans="30:30">
-      <c r="AD278" t="s">
+    <row r="256" spans="41:41">
+      <c r="AO256" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="279" spans="30:30">
-      <c r="AD279" t="s">
+    <row r="257" spans="41:41">
+      <c r="AO257" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="280" spans="30:30">
-      <c r="AD280" t="s">
+    <row r="258" spans="41:41">
+      <c r="AO258" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="281" spans="30:30">
-      <c r="AD281" t="s">
+    <row r="259" spans="41:41">
+      <c r="AO259" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="282" spans="30:30">
-      <c r="AD282" t="s">
+    <row r="260" spans="41:41">
+      <c r="AO260" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="283" spans="30:30">
-      <c r="AD283" t="s">
+    <row r="261" spans="41:41">
+      <c r="AO261" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="284" spans="30:30">
-      <c r="AD284" t="s">
+    <row r="262" spans="41:41">
+      <c r="AO262" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="285" spans="30:30">
-      <c r="AD285" t="s">
+    <row r="263" spans="41:41">
+      <c r="AO263" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="286" spans="30:30">
-      <c r="AD286" t="s">
+    <row r="264" spans="41:41">
+      <c r="AO264" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="287" spans="30:30">
-      <c r="AD287" t="s">
+    <row r="265" spans="41:41">
+      <c r="AO265" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="288" spans="30:30">
-      <c r="AD288" t="s">
+    <row r="266" spans="41:41">
+      <c r="AO266" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="267" spans="41:41">
+      <c r="AO267" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="268" spans="41:41">
+      <c r="AO268" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="269" spans="41:41">
+      <c r="AO269" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="270" spans="41:41">
+      <c r="AO270" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="271" spans="41:41">
+      <c r="AO271" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="272" spans="41:41">
+      <c r="AO272" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="273" spans="41:41">
+      <c r="AO273" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="274" spans="41:41">
+      <c r="AO274" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="275" spans="41:41">
+      <c r="AO275" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="276" spans="41:41">
+      <c r="AO276" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="277" spans="41:41">
+      <c r="AO277" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="278" spans="41:41">
+      <c r="AO278" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="279" spans="41:41">
+      <c r="AO279" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="280" spans="41:41">
+      <c r="AO280" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="281" spans="41:41">
+      <c r="AO281" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="282" spans="41:41">
+      <c r="AO282" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="283" spans="41:41">
+      <c r="AO283" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="284" spans="41:41">
+      <c r="AO284" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="285" spans="41:41">
+      <c r="AO285" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="286" spans="41:41">
+      <c r="AO286" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="287" spans="41:41">
+      <c r="AO287" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="288" spans="41:41">
+      <c r="AO288" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="289" spans="41:41">
+      <c r="AO289" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="791">
   <si>
     <t>alias</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2944,7 +2947,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2988,7 +2991,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3018,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3727,6 +3730,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3751,27 +3759,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3794,122 +3802,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3936,588 +3944,588 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -4555,1588 +4563,1588 @@
   <sheetData>
     <row r="1" spans="5:41">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="X1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="5:41">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="5:41">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="5:41">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="5:41">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="5:41">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="5:41">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="5:41">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="5:41">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="5:41">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="5:41">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="5:41">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="5:41">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="5:41">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="5:41">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="5:41">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="5:41">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="5:41">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="5:41">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="5:41">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="5:41">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="5:41">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="5:41">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="5:41">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="5:41">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="5:41">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="5:41">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="5:41">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="5:41">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="5:41">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="5:41">
       <c r="AO31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="5:41">
       <c r="AO32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="792">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2947,7 +2950,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2991,7 +2994,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3018,7 +3021,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3735,6 +3738,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3759,27 +3767,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3802,122 +3810,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3944,588 +3952,588 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -4563,1588 +4571,1588 @@
   <sheetData>
     <row r="1" spans="5:41">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="5:41">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="5:41">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="5:41">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="5:41">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="5:41">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="5:41">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="5:41">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="5:41">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="5:41">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="5:41">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="5:41">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="5:41">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="5:41">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="5:41">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="5:41">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="5:41">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="5:41">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="5:41">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="5:41">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="5:41">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="5:41">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="5:41">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="5:41">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="5:41">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="5:41">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="5:41">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="5:41">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="5:41">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="5:41">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="5:41">
       <c r="AO31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="5:41">
       <c r="AO32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="793">
   <si>
     <t>alias</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2950,7 +2953,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2994,7 +2997,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3024,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3743,6 +3746,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3767,27 +3775,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3810,122 +3818,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3952,588 +3960,588 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -4571,1588 +4579,1588 @@
   <sheetData>
     <row r="1" spans="5:41">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="5:41">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="5:41">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="5:41">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="5:41">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="5:41">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="5:41">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="5:41">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="5:41">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="5:41">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="5:41">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="5:41">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="5:41">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="5:41">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="5:41">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="5:41">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="5:41">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="5:41">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="5:41">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="5:41">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="5:41">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="5:41">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO22" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="5:41">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="5:41">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="5:41">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="5:41">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="5:41">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="5:41">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="5:41">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO29" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="5:41">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="5:41">
       <c r="AO31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="5:41">
       <c r="AO32" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="794">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2953,7 +2956,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2997,7 +3000,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3027,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3751,6 +3754,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3775,27 +3783,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3818,122 +3826,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3960,588 +3968,588 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -4579,1588 +4587,1588 @@
   <sheetData>
     <row r="1" spans="5:41">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="5:41">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="5:41">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="X3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="5:41">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="5:41">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="5:41">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="5:41">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="5:41">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="5:41">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="5:41">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="5:41">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="5:41">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="5:41">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="5:41">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="5:41">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="5:41">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="5:41">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="5:41">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="5:41">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="5:41">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="5:41">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="5:41">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="5:41">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="5:41">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="5:41">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="5:41">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO26" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="5:41">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="5:41">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="5:41">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="5:41">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="5:41">
       <c r="AO31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="5:41">
       <c r="AO32" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="41:41">
       <c r="AO33" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="41:41">
       <c r="AO34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="41:41">
       <c r="AO35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="41:41">
       <c r="AO36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="41:41">
       <c r="AO37" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="41:41">
       <c r="AO38" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="41:41">
       <c r="AO39" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="41:41">
       <c r="AO40" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="41:41">
       <c r="AO41" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="41:41">
       <c r="AO42" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="41:41">
       <c r="AO43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="41:41">
       <c r="AO44" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="41:41">
       <c r="AO45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="41:41">
       <c r="AO46" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="41:41">
       <c r="AO47" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="41:41">
       <c r="AO48" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="41:41">
       <c r="AO49" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="41:41">
       <c r="AO50" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="41:41">
       <c r="AO51" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="41:41">
       <c r="AO52" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="41:41">
       <c r="AO53" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="41:41">
       <c r="AO54" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="41:41">
       <c r="AO55" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="41:41">
       <c r="AO56" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="41:41">
       <c r="AO57" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="41:41">
       <c r="AO58" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="41:41">
       <c r="AO59" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="41:41">
       <c r="AO60" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="41:41">
       <c r="AO61" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="41:41">
       <c r="AO62" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="41:41">
       <c r="AO63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="41:41">
       <c r="AO64" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="41:41">
       <c r="AO65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="41:41">
       <c r="AO66" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="41:41">
       <c r="AO67" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="41:41">
       <c r="AO68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="41:41">
       <c r="AO69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="41:41">
       <c r="AO70" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="41:41">
       <c r="AO71" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="41:41">
       <c r="AO72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="41:41">
       <c r="AO73" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="41:41">
       <c r="AO74" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="41:41">
       <c r="AO75" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="41:41">
       <c r="AO76" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="41:41">
       <c r="AO77" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="41:41">
       <c r="AO78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="41:41">
       <c r="AO79" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="41:41">
       <c r="AO80" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="41:41">
       <c r="AO81" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="82" spans="41:41">
       <c r="AO82" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="41:41">
       <c r="AO83" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="41:41">
       <c r="AO84" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="41:41">
       <c r="AO85" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="41:41">
       <c r="AO86" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="41:41">
       <c r="AO87" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="41:41">
       <c r="AO88" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="41:41">
       <c r="AO89" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="41:41">
       <c r="AO90" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="41:41">
       <c r="AO91" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="41:41">
       <c r="AO92" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="41:41">
       <c r="AO93" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" spans="41:41">
       <c r="AO94" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="41:41">
       <c r="AO95" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="41:41">
       <c r="AO96" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="41:41">
       <c r="AO97" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="41:41">
       <c r="AO98" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="41:41">
       <c r="AO99" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="41:41">
       <c r="AO100" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="41:41">
       <c r="AO101" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" spans="41:41">
       <c r="AO102" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="41:41">
       <c r="AO103" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="41:41">
       <c r="AO104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="41:41">
       <c r="AO105" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="41:41">
       <c r="AO106" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="41:41">
       <c r="AO107" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="41:41">
       <c r="AO108" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="41:41">
       <c r="AO109" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="41:41">
       <c r="AO110" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="41:41">
       <c r="AO111" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="41:41">
       <c r="AO112" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="41:41">
       <c r="AO113" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="41:41">
       <c r="AO114" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="41:41">
       <c r="AO115" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116" spans="41:41">
       <c r="AO116" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="41:41">
       <c r="AO117" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="41:41">
       <c r="AO118" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="41:41">
       <c r="AO119" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="41:41">
       <c r="AO120" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="41:41">
       <c r="AO121" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="122" spans="41:41">
       <c r="AO122" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="41:41">
       <c r="AO123" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="124" spans="41:41">
       <c r="AO124" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="41:41">
       <c r="AO125" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="41:41">
       <c r="AO126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="41:41">
       <c r="AO127" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="41:41">
       <c r="AO128" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="41:41">
       <c r="AO129" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" spans="41:41">
       <c r="AO130" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="131" spans="41:41">
       <c r="AO131" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="41:41">
       <c r="AO132" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" spans="41:41">
       <c r="AO133" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="41:41">
       <c r="AO134" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="41:41">
       <c r="AO135" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="41:41">
       <c r="AO136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="41:41">
       <c r="AO137" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="41:41">
       <c r="AO138" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="41:41">
       <c r="AO139" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="41:41">
       <c r="AO140" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="141" spans="41:41">
       <c r="AO141" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="41:41">
       <c r="AO142" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="41:41">
       <c r="AO143" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="41:41">
       <c r="AO144" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="145" spans="41:41">
       <c r="AO145" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" spans="41:41">
       <c r="AO146" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="41:41">
       <c r="AO147" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="41:41">
       <c r="AO148" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="41:41">
       <c r="AO149" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150" spans="41:41">
       <c r="AO150" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="41:41">
       <c r="AO151" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="41:41">
       <c r="AO152" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="41:41">
       <c r="AO153" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="41:41">
       <c r="AO154" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="41:41">
       <c r="AO155" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="41:41">
       <c r="AO156" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="41:41">
       <c r="AO157" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="41:41">
       <c r="AO158" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="159" spans="41:41">
       <c r="AO159" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="41:41">
       <c r="AO160" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="41:41">
       <c r="AO161" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="41:41">
       <c r="AO162" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="163" spans="41:41">
       <c r="AO163" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="164" spans="41:41">
       <c r="AO164" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="165" spans="41:41">
       <c r="AO165" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="41:41">
       <c r="AO166" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="41:41">
       <c r="AO167" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="168" spans="41:41">
       <c r="AO168" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="169" spans="41:41">
       <c r="AO169" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" spans="41:41">
       <c r="AO170" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171" spans="41:41">
       <c r="AO171" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="41:41">
       <c r="AO172" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="41:41">
       <c r="AO173" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="41:41">
       <c r="AO174" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="41:41">
       <c r="AO175" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="41:41">
       <c r="AO176" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="41:41">
       <c r="AO177" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="41:41">
       <c r="AO178" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="179" spans="41:41">
       <c r="AO179" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="41:41">
       <c r="AO180" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" spans="41:41">
       <c r="AO181" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="41:41">
       <c r="AO182" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="41:41">
       <c r="AO183" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="41:41">
       <c r="AO184" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="41:41">
       <c r="AO185" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="41:41">
       <c r="AO186" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="187" spans="41:41">
       <c r="AO187" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="41:41">
       <c r="AO188" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="41:41">
       <c r="AO189" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="190" spans="41:41">
       <c r="AO190" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" spans="41:41">
       <c r="AO191" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="41:41">
       <c r="AO192" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="41:41">
       <c r="AO193" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="41:41">
       <c r="AO194" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="41:41">
       <c r="AO195" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="196" spans="41:41">
       <c r="AO196" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="41:41">
       <c r="AO197" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="198" spans="41:41">
       <c r="AO198" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="199" spans="41:41">
       <c r="AO199" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="200" spans="41:41">
       <c r="AO200" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="201" spans="41:41">
       <c r="AO201" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="202" spans="41:41">
       <c r="AO202" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="203" spans="41:41">
       <c r="AO203" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" spans="41:41">
       <c r="AO204" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="41:41">
       <c r="AO205" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="206" spans="41:41">
       <c r="AO206" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="207" spans="41:41">
       <c r="AO207" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="208" spans="41:41">
       <c r="AO208" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="209" spans="41:41">
       <c r="AO209" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="41:41">
       <c r="AO210" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="211" spans="41:41">
       <c r="AO211" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="212" spans="41:41">
       <c r="AO212" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="41:41">
       <c r="AO213" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="41:41">
       <c r="AO214" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="215" spans="41:41">
       <c r="AO215" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="216" spans="41:41">
       <c r="AO216" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="217" spans="41:41">
       <c r="AO217" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="218" spans="41:41">
       <c r="AO218" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="219" spans="41:41">
       <c r="AO219" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="41:41">
       <c r="AO220" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="41:41">
       <c r="AO221" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="222" spans="41:41">
       <c r="AO222" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="223" spans="41:41">
       <c r="AO223" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="224" spans="41:41">
       <c r="AO224" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="225" spans="41:41">
       <c r="AO225" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="226" spans="41:41">
       <c r="AO226" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="227" spans="41:41">
       <c r="AO227" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="228" spans="41:41">
       <c r="AO228" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="229" spans="41:41">
       <c r="AO229" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="41:41">
       <c r="AO230" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="231" spans="41:41">
       <c r="AO231" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="232" spans="41:41">
       <c r="AO232" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="233" spans="41:41">
       <c r="AO233" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="234" spans="41:41">
       <c r="AO234" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="235" spans="41:41">
       <c r="AO235" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="236" spans="41:41">
       <c r="AO236" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="237" spans="41:41">
       <c r="AO237" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238" spans="41:41">
       <c r="AO238" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="41:41">
       <c r="AO239" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="41:41">
       <c r="AO240" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="241" spans="41:41">
       <c r="AO241" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" spans="41:41">
       <c r="AO242" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="41:41">
       <c r="AO243" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="244" spans="41:41">
       <c r="AO244" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="245" spans="41:41">
       <c r="AO245" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246" spans="41:41">
       <c r="AO246" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="247" spans="41:41">
       <c r="AO247" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="248" spans="41:41">
       <c r="AO248" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="249" spans="41:41">
       <c r="AO249" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="250" spans="41:41">
       <c r="AO250" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="251" spans="41:41">
       <c r="AO251" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" spans="41:41">
       <c r="AO252" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="253" spans="41:41">
       <c r="AO253" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="254" spans="41:41">
       <c r="AO254" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="255" spans="41:41">
       <c r="AO255" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="256" spans="41:41">
       <c r="AO256" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="257" spans="41:41">
       <c r="AO257" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="258" spans="41:41">
       <c r="AO258" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="259" spans="41:41">
       <c r="AO259" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="260" spans="41:41">
       <c r="AO260" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="261" spans="41:41">
       <c r="AO261" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="262" spans="41:41">
       <c r="AO262" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="263" spans="41:41">
       <c r="AO263" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="264" spans="41:41">
       <c r="AO264" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="265" spans="41:41">
       <c r="AO265" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="266" spans="41:41">
       <c r="AO266" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="267" spans="41:41">
       <c r="AO267" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="268" spans="41:41">
       <c r="AO268" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="269" spans="41:41">
       <c r="AO269" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="270" spans="41:41">
       <c r="AO270" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="271" spans="41:41">
       <c r="AO271" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="272" spans="41:41">
       <c r="AO272" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="273" spans="41:41">
       <c r="AO273" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="274" spans="41:41">
       <c r="AO274" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="275" spans="41:41">
       <c r="AO275" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="276" spans="41:41">
       <c r="AO276" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="277" spans="41:41">
       <c r="AO277" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="278" spans="41:41">
       <c r="AO278" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="279" spans="41:41">
       <c r="AO279" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="280" spans="41:41">
       <c r="AO280" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" spans="41:41">
       <c r="AO281" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="41:41">
       <c r="AO282" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="283" spans="41:41">
       <c r="AO283" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="41:41">
       <c r="AO284" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="285" spans="41:41">
       <c r="AO285" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="286" spans="41:41">
       <c r="AO286" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="287" spans="41:41">
       <c r="AO287" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="288" spans="41:41">
       <c r="AO288" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="289" spans="41:41">
       <c r="AO289" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="799">
   <si>
     <t>alias</t>
   </si>
@@ -938,7 +938,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -959,13 +959,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -992,7 +992,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1004,25 +1004,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1034,7 +1034,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1046,7 +1046,7 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1058,37 +1058,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1103,31 +1103,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1139,37 +1139,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1181,25 +1181,25 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1418,9 +1418,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1439,6 +1436,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1640,6 +1640,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1649,9 +1652,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1691,7 +1691,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1760,6 +1760,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1835,6 +1838,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1856,6 +1862,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1901,6 +1910,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1913,6 +1925,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1922,9 +1937,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1949,6 +1961,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2009,12 +2024,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2072,34 +2087,34 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>water current</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
+    <t>water_current</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: knot)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2108,7 +2123,7 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
@@ -2129,7 +2144,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2144,37 +2159,37 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether lipids</t>
+    <t>diether_lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved carbon dioxide</t>
+    <t>dissolved_carbon_dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved hydrogen</t>
+    <t>dissolved_hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic carbon</t>
+    <t>dissolved_inorganic_carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved organic nitrogen</t>
+    <t>dissolved_organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved oxygen</t>
+    <t>dissolved_oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
@@ -2192,25 +2207,25 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen concentration</t>
+    <t>total_nitrogen_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic carbon</t>
+    <t>organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic matter</t>
+    <t>organic_matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic nitrogen</t>
+    <t>organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
@@ -2222,7 +2237,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid fatty acid</t>
+    <t>phospholipid_fatty_acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2255,13 +2270,13 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2270,7 +2285,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2282,121 +2297,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2411,10 +2426,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>chemical administration</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4082,178 +4097,178 @@
         <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
@@ -4378,178 +4393,178 @@
         <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +4594,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AO289"/>
+  <dimension ref="E1:AO294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6171,6 +6186,31 @@
         <v>677</v>
       </c>
     </row>
+    <row r="290" spans="41:41">
+      <c r="AO290" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="291" spans="41:41">
+      <c r="AO291" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="292" spans="41:41">
+      <c r="AO292" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="293" spans="41:41">
+      <c r="AO293" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="294" spans="41:41">
+      <c r="AO294" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="794">
   <si>
     <t>alias</t>
   </si>
@@ -938,7 +938,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -959,13 +959,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -992,7 +992,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1004,25 +1004,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1034,7 +1034,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1046,7 +1046,7 @@
     <t>(Optional) Density of sample (Units: g/m3)</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1058,37 +1058,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1103,31 +1103,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1139,37 +1139,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1181,25 +1181,25 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1418,6 +1418,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1436,9 +1439,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1640,9 +1640,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1652,6 +1649,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1691,7 +1691,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1760,9 +1760,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1838,9 +1835,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1862,9 +1856,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1910,9 +1901,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1925,9 +1913,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1937,6 +1922,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1961,9 +1949,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2024,12 +2009,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2087,34 +2072,34 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>water_current</t>
-  </si>
-  <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: knot)</t>
+    <t>water current</t>
+  </si>
+  <si>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2123,7 +2108,7 @@
     <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
@@ -2144,7 +2129,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2159,37 +2144,37 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether_lipids</t>
+    <t>diether lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved_carbon_dioxide</t>
+    <t>dissolved carbon dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_hydrogen</t>
+    <t>dissolved hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_carbon</t>
+    <t>dissolved inorganic carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_nitrogen</t>
+    <t>dissolved organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_oxygen</t>
+    <t>dissolved oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
@@ -2207,25 +2192,25 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_concentration</t>
+    <t>total nitrogen concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_carbon</t>
+    <t>organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_matter</t>
+    <t>organic matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic_nitrogen</t>
+    <t>organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
@@ -2237,7 +2222,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid_fatty_acid</t>
+    <t>phospholipid fatty acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2270,13 +2255,13 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2285,7 +2270,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2297,121 +2282,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2426,10 +2411,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>chemical_administration</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4097,178 +4082,178 @@
         <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="150" customHeight="1">
@@ -4393,178 +4378,178 @@
         <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4579,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AO294"/>
+  <dimension ref="E1:AO289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6186,31 +6171,6 @@
         <v>677</v>
       </c>
     </row>
-    <row r="290" spans="41:41">
-      <c r="AO290" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="291" spans="41:41">
-      <c r="AO291" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="292" spans="41:41">
-      <c r="AO292" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="293" spans="41:41">
-      <c r="AO293" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="294" spans="41:41">
-      <c r="AO294" t="s">
-        <v>682</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -18,25 +18,25 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AO$1:$AO$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$N$1:$N$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$X$1:$X$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$Z$1:$Z$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="798">
   <si>
     <t>alias</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3951,7 +3963,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CT2"/>
+  <dimension ref="A1:CV2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3960,7 +3972,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:100">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3974,19 +3986,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4001,10 +4013,10 @@
         <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>336</v>
@@ -4031,10 +4043,10 @@
         <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>359</v>
@@ -4082,10 +4094,10 @@
         <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>682</v>
@@ -4255,8 +4267,14 @@
       <c r="CT1" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="2" spans="1:98" ht="150" customHeight="1">
+      <c r="CU1" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4270,19 +4288,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4297,10 +4315,10 @@
         <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>337</v>
@@ -4327,10 +4345,10 @@
         <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>360</v>
@@ -4378,10 +4396,10 @@
         <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>683</v>
@@ -4551,25 +4569,31 @@
       <c r="CT2" s="2" t="s">
         <v>793</v>
       </c>
+      <c r="CU2" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>797</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4579,1596 +4603,1596 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AO289"/>
+  <dimension ref="G1:AQ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:41">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:43">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="7:43">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>357</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="7:43">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="7:43">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="7:43">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="7:43">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="7:43">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="7:43">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="7:43">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="7:43">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="7:43">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="7:43">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="7:43">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="7:43">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="7:43">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="7:43">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="7:43">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="7:43">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="7:43">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="7:43">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="7:43">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="7:43">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="7:43">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="7:43">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="7:43">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="7:43">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="7:43">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="7:43">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="7:43">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N1" t="s">
-        <v>330</v>
-      </c>
-      <c r="X1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="5:41">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AQ29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="7:43">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N2" t="s">
-        <v>331</v>
-      </c>
-      <c r="X2" t="s">
-        <v>353</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="5:41">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="X3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="4" spans="5:41">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="5" spans="5:41">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="6" spans="5:41">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="7" spans="5:41">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="5:41">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="5:41">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="5:41">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="5:41">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="5:41">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="5:41">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="5:41">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="5:41">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="5:41">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="5:41">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="5:41">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="19" spans="5:41">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="5:41">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="5:41">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="5:41">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="5:41">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="5:41">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="5:41">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="5:41">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="5:41">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="5:41">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="29" spans="5:41">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="5:41">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" spans="5:41">
-      <c r="AO31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="32" spans="5:41">
-      <c r="AO32" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="41:41">
-      <c r="AO33" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="41:41">
-      <c r="AO34" t="s">
+      <c r="AQ30" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="35" spans="41:41">
-      <c r="AO35" t="s">
+    <row r="31" spans="7:43">
+      <c r="AQ31" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="41:41">
-      <c r="AO36" t="s">
+    <row r="32" spans="7:43">
+      <c r="AQ32" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="41:41">
-      <c r="AO37" t="s">
+    <row r="33" spans="43:43">
+      <c r="AQ33" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="38" spans="41:41">
-      <c r="AO38" t="s">
+    <row r="34" spans="43:43">
+      <c r="AQ34" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="41:41">
-      <c r="AO39" t="s">
+    <row r="35" spans="43:43">
+      <c r="AQ35" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="41:41">
-      <c r="AO40" t="s">
+    <row r="36" spans="43:43">
+      <c r="AQ36" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="41:41">
-      <c r="AO41" t="s">
+    <row r="37" spans="43:43">
+      <c r="AQ37" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="41:41">
-      <c r="AO42" t="s">
+    <row r="38" spans="43:43">
+      <c r="AQ38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="41:41">
-      <c r="AO43" t="s">
+    <row r="39" spans="43:43">
+      <c r="AQ39" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="44" spans="41:41">
-      <c r="AO44" t="s">
+    <row r="40" spans="43:43">
+      <c r="AQ40" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="41:41">
-      <c r="AO45" t="s">
+    <row r="41" spans="43:43">
+      <c r="AQ41" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="46" spans="41:41">
-      <c r="AO46" t="s">
+    <row r="42" spans="43:43">
+      <c r="AQ42" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="47" spans="41:41">
-      <c r="AO47" t="s">
+    <row r="43" spans="43:43">
+      <c r="AQ43" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="41:41">
-      <c r="AO48" t="s">
+    <row r="44" spans="43:43">
+      <c r="AQ44" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="41:41">
-      <c r="AO49" t="s">
+    <row r="45" spans="43:43">
+      <c r="AQ45" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="50" spans="41:41">
-      <c r="AO50" t="s">
+    <row r="46" spans="43:43">
+      <c r="AQ46" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="41:41">
-      <c r="AO51" t="s">
+    <row r="47" spans="43:43">
+      <c r="AQ47" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="52" spans="41:41">
-      <c r="AO52" t="s">
+    <row r="48" spans="43:43">
+      <c r="AQ48" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="41:41">
-      <c r="AO53" t="s">
+    <row r="49" spans="43:43">
+      <c r="AQ49" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="41:41">
-      <c r="AO54" t="s">
+    <row r="50" spans="43:43">
+      <c r="AQ50" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="55" spans="41:41">
-      <c r="AO55" t="s">
+    <row r="51" spans="43:43">
+      <c r="AQ51" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="41:41">
-      <c r="AO56" t="s">
+    <row r="52" spans="43:43">
+      <c r="AQ52" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="41:41">
-      <c r="AO57" t="s">
+    <row r="53" spans="43:43">
+      <c r="AQ53" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="41:41">
-      <c r="AO58" t="s">
+    <row r="54" spans="43:43">
+      <c r="AQ54" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="59" spans="41:41">
-      <c r="AO59" t="s">
+    <row r="55" spans="43:43">
+      <c r="AQ55" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="60" spans="41:41">
-      <c r="AO60" t="s">
+    <row r="56" spans="43:43">
+      <c r="AQ56" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="61" spans="41:41">
-      <c r="AO61" t="s">
+    <row r="57" spans="43:43">
+      <c r="AQ57" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="62" spans="41:41">
-      <c r="AO62" t="s">
+    <row r="58" spans="43:43">
+      <c r="AQ58" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="41:41">
-      <c r="AO63" t="s">
+    <row r="59" spans="43:43">
+      <c r="AQ59" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="64" spans="41:41">
-      <c r="AO64" t="s">
+    <row r="60" spans="43:43">
+      <c r="AQ60" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="65" spans="41:41">
-      <c r="AO65" t="s">
+    <row r="61" spans="43:43">
+      <c r="AQ61" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="66" spans="41:41">
-      <c r="AO66" t="s">
+    <row r="62" spans="43:43">
+      <c r="AQ62" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="41:41">
-      <c r="AO67" t="s">
+    <row r="63" spans="43:43">
+      <c r="AQ63" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="68" spans="41:41">
-      <c r="AO68" t="s">
+    <row r="64" spans="43:43">
+      <c r="AQ64" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="69" spans="41:41">
-      <c r="AO69" t="s">
+    <row r="65" spans="43:43">
+      <c r="AQ65" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="70" spans="41:41">
-      <c r="AO70" t="s">
+    <row r="66" spans="43:43">
+      <c r="AQ66" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="71" spans="41:41">
-      <c r="AO71" t="s">
+    <row r="67" spans="43:43">
+      <c r="AQ67" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="72" spans="41:41">
-      <c r="AO72" t="s">
+    <row r="68" spans="43:43">
+      <c r="AQ68" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="41:41">
-      <c r="AO73" t="s">
+    <row r="69" spans="43:43">
+      <c r="AQ69" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="74" spans="41:41">
-      <c r="AO74" t="s">
+    <row r="70" spans="43:43">
+      <c r="AQ70" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="75" spans="41:41">
-      <c r="AO75" t="s">
+    <row r="71" spans="43:43">
+      <c r="AQ71" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="76" spans="41:41">
-      <c r="AO76" t="s">
+    <row r="72" spans="43:43">
+      <c r="AQ72" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="77" spans="41:41">
-      <c r="AO77" t="s">
+    <row r="73" spans="43:43">
+      <c r="AQ73" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="41:41">
-      <c r="AO78" t="s">
+    <row r="74" spans="43:43">
+      <c r="AQ74" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="79" spans="41:41">
-      <c r="AO79" t="s">
+    <row r="75" spans="43:43">
+      <c r="AQ75" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="80" spans="41:41">
-      <c r="AO80" t="s">
+    <row r="76" spans="43:43">
+      <c r="AQ76" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="41:41">
-      <c r="AO81" t="s">
+    <row r="77" spans="43:43">
+      <c r="AQ77" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="82" spans="41:41">
-      <c r="AO82" t="s">
+    <row r="78" spans="43:43">
+      <c r="AQ78" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="83" spans="41:41">
-      <c r="AO83" t="s">
+    <row r="79" spans="43:43">
+      <c r="AQ79" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="84" spans="41:41">
-      <c r="AO84" t="s">
+    <row r="80" spans="43:43">
+      <c r="AQ80" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="85" spans="41:41">
-      <c r="AO85" t="s">
+    <row r="81" spans="43:43">
+      <c r="AQ81" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="86" spans="41:41">
-      <c r="AO86" t="s">
+    <row r="82" spans="43:43">
+      <c r="AQ82" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="87" spans="41:41">
-      <c r="AO87" t="s">
+    <row r="83" spans="43:43">
+      <c r="AQ83" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="41:41">
-      <c r="AO88" t="s">
+    <row r="84" spans="43:43">
+      <c r="AQ84" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="41:41">
-      <c r="AO89" t="s">
+    <row r="85" spans="43:43">
+      <c r="AQ85" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="41:41">
-      <c r="AO90" t="s">
+    <row r="86" spans="43:43">
+      <c r="AQ86" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="91" spans="41:41">
-      <c r="AO91" t="s">
+    <row r="87" spans="43:43">
+      <c r="AQ87" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="92" spans="41:41">
-      <c r="AO92" t="s">
+    <row r="88" spans="43:43">
+      <c r="AQ88" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="93" spans="41:41">
-      <c r="AO93" t="s">
+    <row r="89" spans="43:43">
+      <c r="AQ89" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="41:41">
-      <c r="AO94" t="s">
+    <row r="90" spans="43:43">
+      <c r="AQ90" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="95" spans="41:41">
-      <c r="AO95" t="s">
+    <row r="91" spans="43:43">
+      <c r="AQ91" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="96" spans="41:41">
-      <c r="AO96" t="s">
+    <row r="92" spans="43:43">
+      <c r="AQ92" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="97" spans="41:41">
-      <c r="AO97" t="s">
+    <row r="93" spans="43:43">
+      <c r="AQ93" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="41:41">
-      <c r="AO98" t="s">
+    <row r="94" spans="43:43">
+      <c r="AQ94" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="41:41">
-      <c r="AO99" t="s">
+    <row r="95" spans="43:43">
+      <c r="AQ95" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="41:41">
-      <c r="AO100" t="s">
+    <row r="96" spans="43:43">
+      <c r="AQ96" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="101" spans="41:41">
-      <c r="AO101" t="s">
+    <row r="97" spans="43:43">
+      <c r="AQ97" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="41:41">
-      <c r="AO102" t="s">
+    <row r="98" spans="43:43">
+      <c r="AQ98" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="41:41">
-      <c r="AO103" t="s">
+    <row r="99" spans="43:43">
+      <c r="AQ99" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="41:41">
-      <c r="AO104" t="s">
+    <row r="100" spans="43:43">
+      <c r="AQ100" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="41:41">
-      <c r="AO105" t="s">
+    <row r="101" spans="43:43">
+      <c r="AQ101" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="106" spans="41:41">
-      <c r="AO106" t="s">
+    <row r="102" spans="43:43">
+      <c r="AQ102" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="41:41">
-      <c r="AO107" t="s">
+    <row r="103" spans="43:43">
+      <c r="AQ103" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="108" spans="41:41">
-      <c r="AO108" t="s">
+    <row r="104" spans="43:43">
+      <c r="AQ104" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="109" spans="41:41">
-      <c r="AO109" t="s">
+    <row r="105" spans="43:43">
+      <c r="AQ105" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="110" spans="41:41">
-      <c r="AO110" t="s">
+    <row r="106" spans="43:43">
+      <c r="AQ106" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="111" spans="41:41">
-      <c r="AO111" t="s">
+    <row r="107" spans="43:43">
+      <c r="AQ107" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="112" spans="41:41">
-      <c r="AO112" t="s">
+    <row r="108" spans="43:43">
+      <c r="AQ108" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="41:41">
-      <c r="AO113" t="s">
+    <row r="109" spans="43:43">
+      <c r="AQ109" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="114" spans="41:41">
-      <c r="AO114" t="s">
+    <row r="110" spans="43:43">
+      <c r="AQ110" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="115" spans="41:41">
-      <c r="AO115" t="s">
+    <row r="111" spans="43:43">
+      <c r="AQ111" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="116" spans="41:41">
-      <c r="AO116" t="s">
+    <row r="112" spans="43:43">
+      <c r="AQ112" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="117" spans="41:41">
-      <c r="AO117" t="s">
+    <row r="113" spans="43:43">
+      <c r="AQ113" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="41:41">
-      <c r="AO118" t="s">
+    <row r="114" spans="43:43">
+      <c r="AQ114" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="119" spans="41:41">
-      <c r="AO119" t="s">
+    <row r="115" spans="43:43">
+      <c r="AQ115" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="120" spans="41:41">
-      <c r="AO120" t="s">
+    <row r="116" spans="43:43">
+      <c r="AQ116" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="121" spans="41:41">
-      <c r="AO121" t="s">
+    <row r="117" spans="43:43">
+      <c r="AQ117" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="122" spans="41:41">
-      <c r="AO122" t="s">
+    <row r="118" spans="43:43">
+      <c r="AQ118" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="123" spans="41:41">
-      <c r="AO123" t="s">
+    <row r="119" spans="43:43">
+      <c r="AQ119" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="124" spans="41:41">
-      <c r="AO124" t="s">
+    <row r="120" spans="43:43">
+      <c r="AQ120" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="125" spans="41:41">
-      <c r="AO125" t="s">
+    <row r="121" spans="43:43">
+      <c r="AQ121" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="126" spans="41:41">
-      <c r="AO126" t="s">
+    <row r="122" spans="43:43">
+      <c r="AQ122" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="127" spans="41:41">
-      <c r="AO127" t="s">
+    <row r="123" spans="43:43">
+      <c r="AQ123" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="128" spans="41:41">
-      <c r="AO128" t="s">
+    <row r="124" spans="43:43">
+      <c r="AQ124" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="129" spans="41:41">
-      <c r="AO129" t="s">
+    <row r="125" spans="43:43">
+      <c r="AQ125" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="130" spans="41:41">
-      <c r="AO130" t="s">
+    <row r="126" spans="43:43">
+      <c r="AQ126" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="131" spans="41:41">
-      <c r="AO131" t="s">
+    <row r="127" spans="43:43">
+      <c r="AQ127" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="132" spans="41:41">
-      <c r="AO132" t="s">
+    <row r="128" spans="43:43">
+      <c r="AQ128" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="133" spans="41:41">
-      <c r="AO133" t="s">
+    <row r="129" spans="43:43">
+      <c r="AQ129" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="134" spans="41:41">
-      <c r="AO134" t="s">
+    <row r="130" spans="43:43">
+      <c r="AQ130" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="41:41">
-      <c r="AO135" t="s">
+    <row r="131" spans="43:43">
+      <c r="AQ131" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="136" spans="41:41">
-      <c r="AO136" t="s">
+    <row r="132" spans="43:43">
+      <c r="AQ132" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="137" spans="41:41">
-      <c r="AO137" t="s">
+    <row r="133" spans="43:43">
+      <c r="AQ133" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="138" spans="41:41">
-      <c r="AO138" t="s">
+    <row r="134" spans="43:43">
+      <c r="AQ134" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="41:41">
-      <c r="AO139" t="s">
+    <row r="135" spans="43:43">
+      <c r="AQ135" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="140" spans="41:41">
-      <c r="AO140" t="s">
+    <row r="136" spans="43:43">
+      <c r="AQ136" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="141" spans="41:41">
-      <c r="AO141" t="s">
+    <row r="137" spans="43:43">
+      <c r="AQ137" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="142" spans="41:41">
-      <c r="AO142" t="s">
+    <row r="138" spans="43:43">
+      <c r="AQ138" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="143" spans="41:41">
-      <c r="AO143" t="s">
+    <row r="139" spans="43:43">
+      <c r="AQ139" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="144" spans="41:41">
-      <c r="AO144" t="s">
+    <row r="140" spans="43:43">
+      <c r="AQ140" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="145" spans="41:41">
-      <c r="AO145" t="s">
+    <row r="141" spans="43:43">
+      <c r="AQ141" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="146" spans="41:41">
-      <c r="AO146" t="s">
+    <row r="142" spans="43:43">
+      <c r="AQ142" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="147" spans="41:41">
-      <c r="AO147" t="s">
+    <row r="143" spans="43:43">
+      <c r="AQ143" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="148" spans="41:41">
-      <c r="AO148" t="s">
+    <row r="144" spans="43:43">
+      <c r="AQ144" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="149" spans="41:41">
-      <c r="AO149" t="s">
+    <row r="145" spans="43:43">
+      <c r="AQ145" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="150" spans="41:41">
-      <c r="AO150" t="s">
+    <row r="146" spans="43:43">
+      <c r="AQ146" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="151" spans="41:41">
-      <c r="AO151" t="s">
+    <row r="147" spans="43:43">
+      <c r="AQ147" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="152" spans="41:41">
-      <c r="AO152" t="s">
+    <row r="148" spans="43:43">
+      <c r="AQ148" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="153" spans="41:41">
-      <c r="AO153" t="s">
+    <row r="149" spans="43:43">
+      <c r="AQ149" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="154" spans="41:41">
-      <c r="AO154" t="s">
+    <row r="150" spans="43:43">
+      <c r="AQ150" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="155" spans="41:41">
-      <c r="AO155" t="s">
+    <row r="151" spans="43:43">
+      <c r="AQ151" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="156" spans="41:41">
-      <c r="AO156" t="s">
+    <row r="152" spans="43:43">
+      <c r="AQ152" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="157" spans="41:41">
-      <c r="AO157" t="s">
+    <row r="153" spans="43:43">
+      <c r="AQ153" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="158" spans="41:41">
-      <c r="AO158" t="s">
+    <row r="154" spans="43:43">
+      <c r="AQ154" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="159" spans="41:41">
-      <c r="AO159" t="s">
+    <row r="155" spans="43:43">
+      <c r="AQ155" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="160" spans="41:41">
-      <c r="AO160" t="s">
+    <row r="156" spans="43:43">
+      <c r="AQ156" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="41:41">
-      <c r="AO161" t="s">
+    <row r="157" spans="43:43">
+      <c r="AQ157" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="162" spans="41:41">
-      <c r="AO162" t="s">
+    <row r="158" spans="43:43">
+      <c r="AQ158" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="163" spans="41:41">
-      <c r="AO163" t="s">
+    <row r="159" spans="43:43">
+      <c r="AQ159" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="164" spans="41:41">
-      <c r="AO164" t="s">
+    <row r="160" spans="43:43">
+      <c r="AQ160" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="165" spans="41:41">
-      <c r="AO165" t="s">
+    <row r="161" spans="43:43">
+      <c r="AQ161" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="166" spans="41:41">
-      <c r="AO166" t="s">
+    <row r="162" spans="43:43">
+      <c r="AQ162" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="167" spans="41:41">
-      <c r="AO167" t="s">
+    <row r="163" spans="43:43">
+      <c r="AQ163" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="168" spans="41:41">
-      <c r="AO168" t="s">
+    <row r="164" spans="43:43">
+      <c r="AQ164" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="169" spans="41:41">
-      <c r="AO169" t="s">
+    <row r="165" spans="43:43">
+      <c r="AQ165" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="170" spans="41:41">
-      <c r="AO170" t="s">
+    <row r="166" spans="43:43">
+      <c r="AQ166" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="171" spans="41:41">
-      <c r="AO171" t="s">
+    <row r="167" spans="43:43">
+      <c r="AQ167" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="172" spans="41:41">
-      <c r="AO172" t="s">
+    <row r="168" spans="43:43">
+      <c r="AQ168" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="173" spans="41:41">
-      <c r="AO173" t="s">
+    <row r="169" spans="43:43">
+      <c r="AQ169" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="174" spans="41:41">
-      <c r="AO174" t="s">
+    <row r="170" spans="43:43">
+      <c r="AQ170" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="175" spans="41:41">
-      <c r="AO175" t="s">
+    <row r="171" spans="43:43">
+      <c r="AQ171" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="176" spans="41:41">
-      <c r="AO176" t="s">
+    <row r="172" spans="43:43">
+      <c r="AQ172" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="177" spans="41:41">
-      <c r="AO177" t="s">
+    <row r="173" spans="43:43">
+      <c r="AQ173" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="178" spans="41:41">
-      <c r="AO178" t="s">
+    <row r="174" spans="43:43">
+      <c r="AQ174" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="179" spans="41:41">
-      <c r="AO179" t="s">
+    <row r="175" spans="43:43">
+      <c r="AQ175" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="180" spans="41:41">
-      <c r="AO180" t="s">
+    <row r="176" spans="43:43">
+      <c r="AQ176" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="181" spans="41:41">
-      <c r="AO181" t="s">
+    <row r="177" spans="43:43">
+      <c r="AQ177" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="182" spans="41:41">
-      <c r="AO182" t="s">
+    <row r="178" spans="43:43">
+      <c r="AQ178" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="183" spans="41:41">
-      <c r="AO183" t="s">
+    <row r="179" spans="43:43">
+      <c r="AQ179" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="184" spans="41:41">
-      <c r="AO184" t="s">
+    <row r="180" spans="43:43">
+      <c r="AQ180" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="41:41">
-      <c r="AO185" t="s">
+    <row r="181" spans="43:43">
+      <c r="AQ181" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="186" spans="41:41">
-      <c r="AO186" t="s">
+    <row r="182" spans="43:43">
+      <c r="AQ182" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="187" spans="41:41">
-      <c r="AO187" t="s">
+    <row r="183" spans="43:43">
+      <c r="AQ183" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="188" spans="41:41">
-      <c r="AO188" t="s">
+    <row r="184" spans="43:43">
+      <c r="AQ184" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="189" spans="41:41">
-      <c r="AO189" t="s">
+    <row r="185" spans="43:43">
+      <c r="AQ185" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="190" spans="41:41">
-      <c r="AO190" t="s">
+    <row r="186" spans="43:43">
+      <c r="AQ186" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="191" spans="41:41">
-      <c r="AO191" t="s">
+    <row r="187" spans="43:43">
+      <c r="AQ187" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="192" spans="41:41">
-      <c r="AO192" t="s">
+    <row r="188" spans="43:43">
+      <c r="AQ188" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="193" spans="41:41">
-      <c r="AO193" t="s">
+    <row r="189" spans="43:43">
+      <c r="AQ189" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="194" spans="41:41">
-      <c r="AO194" t="s">
+    <row r="190" spans="43:43">
+      <c r="AQ190" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="195" spans="41:41">
-      <c r="AO195" t="s">
+    <row r="191" spans="43:43">
+      <c r="AQ191" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="196" spans="41:41">
-      <c r="AO196" t="s">
+    <row r="192" spans="43:43">
+      <c r="AQ192" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="197" spans="41:41">
-      <c r="AO197" t="s">
+    <row r="193" spans="43:43">
+      <c r="AQ193" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="198" spans="41:41">
-      <c r="AO198" t="s">
+    <row r="194" spans="43:43">
+      <c r="AQ194" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="199" spans="41:41">
-      <c r="AO199" t="s">
+    <row r="195" spans="43:43">
+      <c r="AQ195" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="200" spans="41:41">
-      <c r="AO200" t="s">
+    <row r="196" spans="43:43">
+      <c r="AQ196" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="201" spans="41:41">
-      <c r="AO201" t="s">
+    <row r="197" spans="43:43">
+      <c r="AQ197" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="202" spans="41:41">
-      <c r="AO202" t="s">
+    <row r="198" spans="43:43">
+      <c r="AQ198" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="203" spans="41:41">
-      <c r="AO203" t="s">
+    <row r="199" spans="43:43">
+      <c r="AQ199" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="204" spans="41:41">
-      <c r="AO204" t="s">
+    <row r="200" spans="43:43">
+      <c r="AQ200" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="205" spans="41:41">
-      <c r="AO205" t="s">
+    <row r="201" spans="43:43">
+      <c r="AQ201" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="206" spans="41:41">
-      <c r="AO206" t="s">
+    <row r="202" spans="43:43">
+      <c r="AQ202" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="207" spans="41:41">
-      <c r="AO207" t="s">
+    <row r="203" spans="43:43">
+      <c r="AQ203" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="41:41">
-      <c r="AO208" t="s">
+    <row r="204" spans="43:43">
+      <c r="AQ204" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="209" spans="41:41">
-      <c r="AO209" t="s">
+    <row r="205" spans="43:43">
+      <c r="AQ205" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="210" spans="41:41">
-      <c r="AO210" t="s">
+    <row r="206" spans="43:43">
+      <c r="AQ206" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="211" spans="41:41">
-      <c r="AO211" t="s">
+    <row r="207" spans="43:43">
+      <c r="AQ207" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="212" spans="41:41">
-      <c r="AO212" t="s">
+    <row r="208" spans="43:43">
+      <c r="AQ208" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="213" spans="41:41">
-      <c r="AO213" t="s">
+    <row r="209" spans="43:43">
+      <c r="AQ209" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="214" spans="41:41">
-      <c r="AO214" t="s">
+    <row r="210" spans="43:43">
+      <c r="AQ210" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="215" spans="41:41">
-      <c r="AO215" t="s">
+    <row r="211" spans="43:43">
+      <c r="AQ211" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="216" spans="41:41">
-      <c r="AO216" t="s">
+    <row r="212" spans="43:43">
+      <c r="AQ212" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="217" spans="41:41">
-      <c r="AO217" t="s">
+    <row r="213" spans="43:43">
+      <c r="AQ213" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="218" spans="41:41">
-      <c r="AO218" t="s">
+    <row r="214" spans="43:43">
+      <c r="AQ214" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="219" spans="41:41">
-      <c r="AO219" t="s">
+    <row r="215" spans="43:43">
+      <c r="AQ215" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="220" spans="41:41">
-      <c r="AO220" t="s">
+    <row r="216" spans="43:43">
+      <c r="AQ216" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="221" spans="41:41">
-      <c r="AO221" t="s">
+    <row r="217" spans="43:43">
+      <c r="AQ217" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="222" spans="41:41">
-      <c r="AO222" t="s">
+    <row r="218" spans="43:43">
+      <c r="AQ218" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="223" spans="41:41">
-      <c r="AO223" t="s">
+    <row r="219" spans="43:43">
+      <c r="AQ219" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="224" spans="41:41">
-      <c r="AO224" t="s">
+    <row r="220" spans="43:43">
+      <c r="AQ220" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="41:41">
-      <c r="AO225" t="s">
+    <row r="221" spans="43:43">
+      <c r="AQ221" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="226" spans="41:41">
-      <c r="AO226" t="s">
+    <row r="222" spans="43:43">
+      <c r="AQ222" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="227" spans="41:41">
-      <c r="AO227" t="s">
+    <row r="223" spans="43:43">
+      <c r="AQ223" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="228" spans="41:41">
-      <c r="AO228" t="s">
+    <row r="224" spans="43:43">
+      <c r="AQ224" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="229" spans="41:41">
-      <c r="AO229" t="s">
+    <row r="225" spans="43:43">
+      <c r="AQ225" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="230" spans="41:41">
-      <c r="AO230" t="s">
+    <row r="226" spans="43:43">
+      <c r="AQ226" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="231" spans="41:41">
-      <c r="AO231" t="s">
+    <row r="227" spans="43:43">
+      <c r="AQ227" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="232" spans="41:41">
-      <c r="AO232" t="s">
+    <row r="228" spans="43:43">
+      <c r="AQ228" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="233" spans="41:41">
-      <c r="AO233" t="s">
+    <row r="229" spans="43:43">
+      <c r="AQ229" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="234" spans="41:41">
-      <c r="AO234" t="s">
+    <row r="230" spans="43:43">
+      <c r="AQ230" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="235" spans="41:41">
-      <c r="AO235" t="s">
+    <row r="231" spans="43:43">
+      <c r="AQ231" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="236" spans="41:41">
-      <c r="AO236" t="s">
+    <row r="232" spans="43:43">
+      <c r="AQ232" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="237" spans="41:41">
-      <c r="AO237" t="s">
+    <row r="233" spans="43:43">
+      <c r="AQ233" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="238" spans="41:41">
-      <c r="AO238" t="s">
+    <row r="234" spans="43:43">
+      <c r="AQ234" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="239" spans="41:41">
-      <c r="AO239" t="s">
+    <row r="235" spans="43:43">
+      <c r="AQ235" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="240" spans="41:41">
-      <c r="AO240" t="s">
+    <row r="236" spans="43:43">
+      <c r="AQ236" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="241" spans="41:41">
-      <c r="AO241" t="s">
+    <row r="237" spans="43:43">
+      <c r="AQ237" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="242" spans="41:41">
-      <c r="AO242" t="s">
+    <row r="238" spans="43:43">
+      <c r="AQ238" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="243" spans="41:41">
-      <c r="AO243" t="s">
+    <row r="239" spans="43:43">
+      <c r="AQ239" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="244" spans="41:41">
-      <c r="AO244" t="s">
+    <row r="240" spans="43:43">
+      <c r="AQ240" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="41:41">
-      <c r="AO245" t="s">
+    <row r="241" spans="43:43">
+      <c r="AQ241" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="246" spans="41:41">
-      <c r="AO246" t="s">
+    <row r="242" spans="43:43">
+      <c r="AQ242" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="247" spans="41:41">
-      <c r="AO247" t="s">
+    <row r="243" spans="43:43">
+      <c r="AQ243" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="248" spans="41:41">
-      <c r="AO248" t="s">
+    <row r="244" spans="43:43">
+      <c r="AQ244" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="249" spans="41:41">
-      <c r="AO249" t="s">
+    <row r="245" spans="43:43">
+      <c r="AQ245" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="250" spans="41:41">
-      <c r="AO250" t="s">
+    <row r="246" spans="43:43">
+      <c r="AQ246" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="251" spans="41:41">
-      <c r="AO251" t="s">
+    <row r="247" spans="43:43">
+      <c r="AQ247" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="252" spans="41:41">
-      <c r="AO252" t="s">
+    <row r="248" spans="43:43">
+      <c r="AQ248" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="253" spans="41:41">
-      <c r="AO253" t="s">
+    <row r="249" spans="43:43">
+      <c r="AQ249" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="254" spans="41:41">
-      <c r="AO254" t="s">
+    <row r="250" spans="43:43">
+      <c r="AQ250" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="255" spans="41:41">
-      <c r="AO255" t="s">
+    <row r="251" spans="43:43">
+      <c r="AQ251" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="256" spans="41:41">
-      <c r="AO256" t="s">
+    <row r="252" spans="43:43">
+      <c r="AQ252" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="257" spans="41:41">
-      <c r="AO257" t="s">
+    <row r="253" spans="43:43">
+      <c r="AQ253" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="258" spans="41:41">
-      <c r="AO258" t="s">
+    <row r="254" spans="43:43">
+      <c r="AQ254" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="259" spans="41:41">
-      <c r="AO259" t="s">
+    <row r="255" spans="43:43">
+      <c r="AQ255" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="260" spans="41:41">
-      <c r="AO260" t="s">
+    <row r="256" spans="43:43">
+      <c r="AQ256" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="41:41">
-      <c r="AO261" t="s">
+    <row r="257" spans="43:43">
+      <c r="AQ257" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="262" spans="41:41">
-      <c r="AO262" t="s">
+    <row r="258" spans="43:43">
+      <c r="AQ258" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="263" spans="41:41">
-      <c r="AO263" t="s">
+    <row r="259" spans="43:43">
+      <c r="AQ259" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="264" spans="41:41">
-      <c r="AO264" t="s">
+    <row r="260" spans="43:43">
+      <c r="AQ260" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="265" spans="41:41">
-      <c r="AO265" t="s">
+    <row r="261" spans="43:43">
+      <c r="AQ261" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="266" spans="41:41">
-      <c r="AO266" t="s">
+    <row r="262" spans="43:43">
+      <c r="AQ262" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="267" spans="41:41">
-      <c r="AO267" t="s">
+    <row r="263" spans="43:43">
+      <c r="AQ263" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="268" spans="41:41">
-      <c r="AO268" t="s">
+    <row r="264" spans="43:43">
+      <c r="AQ264" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="269" spans="41:41">
-      <c r="AO269" t="s">
+    <row r="265" spans="43:43">
+      <c r="AQ265" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="270" spans="41:41">
-      <c r="AO270" t="s">
+    <row r="266" spans="43:43">
+      <c r="AQ266" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="271" spans="41:41">
-      <c r="AO271" t="s">
+    <row r="267" spans="43:43">
+      <c r="AQ267" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="272" spans="41:41">
-      <c r="AO272" t="s">
+    <row r="268" spans="43:43">
+      <c r="AQ268" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="273" spans="41:41">
-      <c r="AO273" t="s">
+    <row r="269" spans="43:43">
+      <c r="AQ269" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="274" spans="41:41">
-      <c r="AO274" t="s">
+    <row r="270" spans="43:43">
+      <c r="AQ270" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="275" spans="41:41">
-      <c r="AO275" t="s">
+    <row r="271" spans="43:43">
+      <c r="AQ271" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="276" spans="41:41">
-      <c r="AO276" t="s">
+    <row r="272" spans="43:43">
+      <c r="AQ272" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="277" spans="41:41">
-      <c r="AO277" t="s">
+    <row r="273" spans="43:43">
+      <c r="AQ273" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="278" spans="41:41">
-      <c r="AO278" t="s">
+    <row r="274" spans="43:43">
+      <c r="AQ274" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="279" spans="41:41">
-      <c r="AO279" t="s">
+    <row r="275" spans="43:43">
+      <c r="AQ275" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="280" spans="41:41">
-      <c r="AO280" t="s">
+    <row r="276" spans="43:43">
+      <c r="AQ276" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="281" spans="41:41">
-      <c r="AO281" t="s">
+    <row r="277" spans="43:43">
+      <c r="AQ277" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="282" spans="41:41">
-      <c r="AO282" t="s">
+    <row r="278" spans="43:43">
+      <c r="AQ278" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="283" spans="41:41">
-      <c r="AO283" t="s">
+    <row r="279" spans="43:43">
+      <c r="AQ279" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="284" spans="41:41">
-      <c r="AO284" t="s">
+    <row r="280" spans="43:43">
+      <c r="AQ280" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="285" spans="41:41">
-      <c r="AO285" t="s">
+    <row r="281" spans="43:43">
+      <c r="AQ281" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="286" spans="41:41">
-      <c r="AO286" t="s">
+    <row r="282" spans="43:43">
+      <c r="AQ282" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="287" spans="41:41">
-      <c r="AO287" t="s">
+    <row r="283" spans="43:43">
+      <c r="AQ283" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="288" spans="41:41">
-      <c r="AO288" t="s">
+    <row r="284" spans="43:43">
+      <c r="AQ284" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="289" spans="41:41">
-      <c r="AO289" t="s">
+    <row r="285" spans="43:43">
+      <c r="AQ285" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="286" spans="43:43">
+      <c r="AQ286" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="287" spans="43:43">
+      <c r="AQ287" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="288" spans="43:43">
+      <c r="AQ288" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="289" spans="43:43">
+      <c r="AQ289" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="803">
   <si>
     <t>alias</t>
   </si>
@@ -1196,13 +1196,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t, g, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1430,9 +1430,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1451,6 +1448,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1652,6 +1652,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1661,9 +1664,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1703,7 +1703,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1772,6 +1772,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1847,6 +1850,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1868,6 +1874,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1913,6 +1922,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1925,6 +1937,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1934,9 +1949,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1961,6 +1973,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2021,12 +2036,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2105,13 +2120,13 @@
     <t>water current</t>
   </si>
   <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s, knot)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar, atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2135,13 +2150,13 @@
     <t>bromide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of bromide (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: parts/million, µmol/L, mg/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2153,7 +2168,7 @@
     <t>chlorophyll</t>
   </si>
   <si>
-    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
+    <t>(Optional) Concentration of chlorophyll (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
@@ -2183,7 +2198,7 @@
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: mg/L, µg/L)</t>
   </si>
   <si>
     <t>dissolved oxygen</t>
@@ -2237,13 +2252,13 @@
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/L, mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of potassium (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>salinity</t>
@@ -2261,19 +2276,19 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
+    <t>(Optional) Sodium concentration (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2357,7 +2372,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2423,7 +2438,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4100,178 +4115,178 @@
         <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:100" ht="150" customHeight="1">
@@ -4402,178 +4417,178 @@
         <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -4603,7 +4618,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AQ289"/>
+  <dimension ref="G1:AQ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6195,6 +6210,31 @@
         <v>681</v>
       </c>
     </row>
+    <row r="290" spans="43:43">
+      <c r="AQ290" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="291" spans="43:43">
+      <c r="AQ291" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="292" spans="43:43">
+      <c r="AQ292" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="293" spans="43:43">
+      <c r="AQ293" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="294" spans="43:43">
+      <c r="AQ294" t="s">
+        <v>686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000025/metadata_template_ERC000025.xlsx
+++ b/templates/ERC000025/metadata_template_ERC000025.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="803">
   <si>
     <t>alias</t>
   </si>
@@ -1196,13 +1196,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1430,9 +1430,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1451,6 +1448,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1652,6 +1652,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1661,9 +1664,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1703,7 +1703,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1772,6 +1772,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1847,6 +1850,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1868,6 +1874,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1913,6 +1922,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1925,6 +1937,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1934,9 +1949,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1961,6 +1973,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2021,12 +2036,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2105,13 +2120,13 @@
     <t>water current</t>
   </si>
   <si>
-    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: m3/s)</t>
+    <t>(Optional) Measurement of magnitude and direction of flow within a fluid (Units: knot)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2141,7 +2156,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>chloride</t>
@@ -2267,13 +2282,13 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2357,7 +2372,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2423,7 +2438,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4100,178 +4115,178 @@
         <v>391</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:100" ht="150" customHeight="1">
@@ -4402,178 +4417,178 @@
         <v>392</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -4603,7 +4618,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AQ289"/>
+  <dimension ref="G1:AQ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6195,6 +6210,31 @@
         <v>681</v>
       </c>
     </row>
+    <row r="290" spans="43:43">
+      <c r="AQ290" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="291" spans="43:43">
+      <c r="AQ291" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="292" spans="43:43">
+      <c r="AQ292" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="293" spans="43:43">
+      <c r="AQ293" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="294" spans="43:43">
+      <c r="AQ294" t="s">
+        <v>686</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
